--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zelensky and Putin Make Dueling Trips to Front Line in Ukraine</t>
+          <t>In Prosecution of Turkish Bank, the Supreme Court Issues a Mixed Ruling</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The visits by the Ukrainian and Russian leaders came as both sought to display strength and confidence ahead of an anticipated Kyiv counteroffensive.</t>
+          <t>The justices rejected key arguments from Halkbank, which is owned by the Turkish government. But they told a lower court to revisit one possible defense.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18Ukraine-Ledeall-01-tcwz/18Ukraine-Ledeall-01-tcwz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19dc-scotus-qgtw/19dc-scotus-qgtw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fighting in Sudan Traps Families as Generals Fail to Keep a Cease-Fire</t>
+          <t>Bear That Killed Jogger in Italy Is Captured</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Terrified to step outside because of firefights and bands of armed men in the streets, residents remain stuck in their homes with dwindling supplies of food, water and medicine.</t>
+          <t>The governor of a province in a mountainous region of the country’s north sought to euthanize the bear, known as JJ4, but a court is reviewing the matter.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18sudan-1-ptgk/18sudan-1-ptgk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/18/world/18xp-bear1/18xp-bear1-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -513,22 +513,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>In Northern Ireland, Glamorous U.S. Envoy Meets Less Than Glamorous Job</t>
+          <t>Austin Defends Giving Young Service Members Access to Classified Data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>With a mandate to drum up American investment but avoid the many political pitfalls, Joe Kennedy III will need to tread carefully in Belfast.</t>
+          <t>After a 21-year-old Air National Guardsman was accused of leaking top secret documents, Mr. Austin said the real issue was ensuring that all service members protect information.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18nireland-us-01-gbjq/18nireland-us-01-gbjq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19leaks-austin-topart-lftq/19leaks-austin-topart-lftq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -538,22 +538,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Your Wednesday Briefing: How Russia Gets Chips for Its Weapons</t>
+          <t>How to Understand the Fighting in Sudan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Also, a cease-fire fails in Sudan.</t>
+          <t>Looking at the history of coups — both the successes and the failures — can help put it the week’s chaotic events into clearer perspective.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/041923ambriefing-asia-promo/041923ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19InterpreterNL-Sudan-1-vkct/19InterpreterNL-Sudan-1-vkct-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -563,22 +563,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Freddie Scappaticci, Who May Have Been British Spy ‘Stakeknife,’ Is Dead</t>
+          <t>How a Terra-Cotta Warrior Lost Its Thumb to a Delaware Shoe Salesman</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>He denied that he was Stakeknife, the code name of a high-ranking British mole in the Irish Republican Army during the Northern Ireland conflict.</t>
+          <t>Michael Rohana stole the clay digit six years ago at a Philadelphia museum where he had been attending an ugly-sweater party. He pleaded guilty this week.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Scappaticci-01/17Scappaticci-01-qvpb-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2018/02/21/world/00xp-stolen-thumb-01/20china-terracotta-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -588,22 +588,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How Much Did You Spend on Your Solo Vacation?</t>
+          <t>I Watched a De-Mining Team at Work</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>We spoke to readers about their recent solo travels, including their motivations to travel alone and what they chose to spend on.</t>
+          <t>For Ukraine’s counteroffensive to succeed, its army will have to traverse land covered in Russian mines. That’s where the Dragon comes in.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/travel/18travel-solo-promo/18travel-solo-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/11/autossell/dragon1Sequence-01/dragon1Sequence-01-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -613,22 +613,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Video Shows People Escaping Deadly Fire at Beijing Hospital</t>
+          <t>Contest for Children to Hunt Feral Cats Is Scrapped in New Zealand</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>People were seen exiting through a window using a bedsheet and balancing on air conditioning units to escape the flames and smoke.</t>
+          <t>The country aggressively tries to control invasive species, but the culling event, which was to be part of a bigger hunting competition, generated a backlash.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18beijing-fire-gjkf/18beijing-fire-gjkf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/world/19nz-cats/19nz-cats-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -638,22 +638,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Covid May Increase the Risk of Type 2 Diabetes, Researchers Find</t>
+          <t>Countries struggle over plans to evacuate their citizens from Sudan.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Men and people with severe illnesses were more likely to develop the condition within a year. But the data does not prove that the coronavirus causes diabetes.</t>
+          <t>As fighting persists in Khartoum, including at its main airport, nations have said they cannot repatriate their citizens or have no immediate plans to do so.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18diabetes-vjtl/18diabetes-vjtl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19sudan-blog-evacuations-ftkg-copy/19sudan-blog-evacuations-ftkg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Russian artillery and aerial attacks against Bakhmut are growing fiercer, Ukraine says.</t>
+          <t>India Is Surpassing China in Population</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>According to a top Ukrainian general, Kyiv’s forces remain in control in the ravaged city, the focus of months of fighting, but Russian forces are turning it “into ruins.”</t>
+          <t>We look at India’s looming status as the world’s most populous country and also give you the latest on the Fox News settlement.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18ukraine-briefing-bakhmut-01-thfl/18ukraine-briefing-bakhmut-01-thfl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19themorning-lede-promo/19themorning-lede-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -688,25 +688,9584 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>3 Nuclear Superpowers, Rather Than 2, Usher In a New Strategic Era</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>China is on track to massively expand its nuclear arsenal, just as Russia suspends the last major arms control treaty. It augurs a new world in which Beijing, Moscow and Washington will likely be atomic peers.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18dc-nukes-1-hjwt/18dc-nukes-1-hjwt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Austin will discuss more arms and aid for Ukraine during his European trip.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>By CARLY OLSON</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19ukraine-briefing-sweden-meeting-whkg/19ukraine-briefing-sweden-meeting-whkg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fox News settles a defamation suit.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/19ambriefing-europe-nl-promo-april/19ambriefing-europe-nl-fox-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Zelensky and Putin Make Dueling Trips to Front Line in Ukraine</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The visits by the Ukrainian and Russian leaders came as both sought to display strength and confidence ahead of an anticipated Kyiv counteroffensive.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18Ukraine-Ledeall-01-tcwz/18Ukraine-Ledeall-01-tcwz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fighting in Sudan Traps Families as Generals Fail to Keep a Cease-Fire</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Terrified to step outside because of firefights and bands of armed men in the streets, residents remain stuck in their homes with dwindling supplies of food, water and medicine.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18sudan-1-ptgk/18sudan-1-ptgk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>In Northern Ireland, Glamorous U.S. Envoy Meets Less Than Glamorous Job</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>With a mandate to drum up American investment but avoid the many political pitfalls, Joe Kennedy III will need to tread carefully in Belfast.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18nireland-us-01-gbjq/18nireland-us-01-gbjq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing: How Russia Gets Chips for Its Weapons</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Also, a cease-fire fails in Sudan.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/041923ambriefing-asia-promo/041923ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Freddie Scappaticci, Who May Have Been British Spy ‘Stakeknife,’ Is Dead</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>He denied that he was Stakeknife, the code name of a high-ranking British mole in the Irish Republican Army during the Northern Ireland conflict.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Scappaticci-01/17Scappaticci-01-qvpb-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>How Much Did You Spend on Your Solo Vacation?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>We spoke to readers about their recent solo travels, including their motivations to travel alone and what they chose to spend on.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/travel/18travel-solo-promo/18travel-solo-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>At Least 21 Dead After Fire at Beijing Hospital</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The blaze appears to be the deadliest in the past two decades in the city, even though firefighters seemed to extinguish it quickly.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Beijing-Fire-ctgp/19Beijing-Fire-ctgp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Video Shows People Escaping Deadly Fire at Beijing Hospital</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>People were seen exiting through a window using a bedsheet and balancing on air conditioning units to escape the flames and smoke.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Beijing-Fire-ctgp/19Beijing-Fire-ctgp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Beleaguered Swiss Bank Accused of Impeding Hunt for Accounts Linked to Nazis</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The Senate Budget Committee opened an investigation after Credit Suisse fired a lawyer it had hired to oversee an independent inquiry hunting for accounts linked to Nazis who went to Argentina.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18dc-nazis-01-qzcl/18dc-nazis-01-qzcl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Covid May Increase the Risk of Type 2 Diabetes, Researchers Find</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Men and people with severe illnesses were more likely to develop the condition within a year. But the data does not prove that the coronavirus causes diabetes.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18diabetes-vjtl/18diabetes-vjtl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Russian artillery and aerial attacks against Bakhmut are growing fiercer, Ukraine says.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>According to a top Ukrainian general, Kyiv’s forces remain in control in the ravaged city, the focus of months of fighting, but Russian forces are turning it “into ruins.”</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18ukraine-briefing-bakhmut-01-thfl/18ukraine-briefing-bakhmut-01-thfl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Detained Wall Street Journal Reporter Appears in Moscow Court</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>April 18, 2023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>A judge denied Evan Gershkovich’s appeal to lift his pretrial detention and refused his legal team’s request to place him under house arrest.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://static01.nyt.com/images/2023/04/18/multimedia/18ukraine-briefing-HFO-Gershkovich-hearing-wgpv/18ukraine-briefing-HFO-Gershkovich-hearing-wgpv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Russia Is Importing Western Weapons Technology, Bypassing Sanctions</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Western technology goods are winding up in Russian missiles, raising questions about the efficacy of sanctions.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18DC-UKRAINE-SANCTIONS-1-vjfz/18DC-UKRAINE-SANCTIONS-1-vjfz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>One Climber Dies and Another Is Missing on Himalayan Mountain</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Noel Hanna, an experienced alpinist, was found dead at a camp after he climbed the summit of Annapurna without supplemental oxygen.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18nepal-deaths-1-hwcb/18nepal-deaths-1-hwcb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tunisia Arrests a Leading Opposition Figure</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Targeting Rachid al-Ghannouchi, the leader of the Islamist Ennahda party, is an escalation in President Kais Saied’s crackdown on dissent.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18tunisia-top-bvgw/18tunisia-top-bvgw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The R.S.F. posts a video showing its fighters outside the presidential palace.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>By CORA ENGELBRECHT and HWAIDA SAAD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Clarence Thomas’s Gifts and the Supreme Court’s Credibility</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Only 25 percent of Americans have a lot of faith in the court.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18themorning-promo/18themorning-lede-tzwm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Blinken and Top Diplomats Stress Unity on Russia and China</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The foreign ministers of the Group of 7 nations affirmed their shared visions on Russia’s war on Ukraine and China’s assertiveness after talk flared this month over different strategies.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18japan-blinken-cptm/18japan-blinken-cptm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>India’s Top Court Begins Hearing Same-Sex Marriage Case</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The Supreme Court in recent years has struck down a ban on consensual gay sex. A ruling in favor of legalizing gay unions would make India an outlier in Asia.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18india-samesex-01-khlp/18india-samesex-01-khlp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U.S. and European Officials Come Under Attack in Sudan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The violence against foreign officials, who are usually not targeted, highlighted how much the security situation has worsened in Khartoum in recent days.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18sudan-blog-diplomats-vjwz/18sudan-blog-diplomats-vjwz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Putin Visits Kherson, Near Front Line of War</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>President Vladimir V. Putin of Russia made a rare trip to the occupied region of southern Ukraine and heard from his military commanders, according to the Kremlin.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18ukraine-briefing-putin-hwjf/18ukraine-briefing-putin-hwjf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Courting the Sirens of the Southern Sky</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>These days it takes a generation to build a giant telescope. A new one is taking shape in the Atacama Desert in Chile.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/00SCI-OUTTHERE-hole-gpwv/00SCI-OUTTHERE-hole-gpwv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>From Bullets to ‘Bird Residue,’ the Many Trials of Telescopes</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Before an observatory can plumb the secrets of the cosmos, it must navigate more humbling challenges.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/science/18SCI-OUTTHERE-HAZARDS/18SCI-OUTTHERE-HAZARDS-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich, the Wall Street Journal reporter detained in Russia, is expected to appear in court.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>By ANTON TROIANOVSKI, IVAN NECHEPURENKO and CASSANDRA VINOGRAD</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18ukraine-briefing-gershkovich-lgct/18ukraine-briefing-gershkovich-lgct-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Here are the latest developments in Sudan.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>By ABDI LATIF DAHIR, DECLAN WALSH and EDWARD WONG</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hospitals are attacked in Sudan.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/18ambriefing-europe-nl-promo-april/18ambriefing-europe-nl-sudan-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Harsh Sentence for Putin Critic Highlights Kremlin’s Repression</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A Moscow court sentenced Vladimir Kara-Murza to 25 years in prison, making it clear that any criticism of the war can lead to prison time.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17russia-critic-1-fpbw/17russia-critic-1-fpbw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Who are the Rapid Support Forces, the paramilitaries fighting Sudan’s Army?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The unit traces its origins from the notorious Janjaweed militias, which in the 2000s helped Sudan’s Army crush a rebellion in the western region of Darfur.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17sudan-blog-rsf-militia-01-khgz/17sudan-blog-rsf-militia-01-khgz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Texas to New Jersey: Tracking the Toxic Chemicals in the Ohio Train Inferno</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tankers of vinyl chloride were going halfway across the country, government records show, a trip highlighting the risks of transporting chemicals as plastics production grows.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/00cli-train-chemicals-01-wzkm/00cli-train-chemicals-01-wzkm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hospitals and Aid Groups Become Targets as Sudan Fighting Intensifies</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Civilians are caught in the cross-fire, and two rival generals vying for power made it clear their forces had no intention of standing down.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17sudan-1-bpzc/17sudan-1-bpzc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Seeking to Calm Unrest, Macron Calls for a ‘New Pact of Life and Work’</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>But the French president did not yield on the pension change that has roiled the nation. Labor unions declined to meet for talks, and vowed massive protests on May 1.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17France-Macron-01-kbzv/17France-Macron-01-kbzv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing: A Long Sentence for a Putin Critic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Also, fighting roils Sudan’s capital.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/041823ambriefing-asia-promo/041823ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>After American’s Killing in Syria, F.B.I. Builds War Crimes Case Against Top Officials</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The inquiry aims to hold to account Syrian officials considered key architects of a brutal system of detention and torture that has flourished under President Bashar al-Assad.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/us/politics/00dc-syria/00dc-syria-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Axel Springer C.E.O. Apologizes for Remarks</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Texts by Mathias Döpfner, the chief executive of the German media giant, included a request urging favorable coverage of a political party. They were published by a rival publication.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17axel-springer-hfzk/17axel-springer-hfzk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chinese Worker in Pakistan Is Arrested on Blasphemy Charges</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The arrest of a foreigner under the country’s harsh blasphemy laws, which can lead to the death penalty, is rare and could strain an otherwise warming relationship between China and Pakistan.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17pakistan-1-mtgl/17pakistan-1-mtgl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich, the detained Wall Street Journal reporter, has received a consular visit.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mr. Gershkovich, 31, was arrested by Russian security services in late March and formally charged with espionage, an accusation that his employer and U.S. officials vehemently deny.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17ukraine-briefing-gershkovich-vfpw/17ukraine-briefing-gershkovich-vfpw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The opposition activist convicted of treason has long rankled the Kremlin.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Vladimir Kara-Murza was sentenced on Monday to 25 years in a Russian penal colony.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17ukraine-briefing-kara-murza-profile-fjth/17ukraine-briefing-kara-murza-profile-fjth-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Airbus and Air France Are Acquitted in 2009 Rio-Paris Crash</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Prosecutors had said they would not seek a conviction in the disaster, but the ruling was still a blow for the families of the 228 victims, who fought for years to bring the two companies to court.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17france-trial-1-mtbc/17france-trial-1-mtbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fox News on Trial</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A lawsuit against Fox News could help decide the boundaries of press freedom.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/17themorning-lede-promo/17themorning-lede-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>In Photos: Families of Guatemalans Killed in Migrant Center Fire Bury Their Dead</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The fire in March left 40 people dead.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/world/14Guatemala-Funerals-Photos-promo/14Guatemala-Funerals-Photos-12-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Russian Invasion of Ukraine Revolutionizes NATO Military Strategy</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Shocked by Russian atrocities, NATO is becoming the war-fighting alliance it was during the Cold War, committed to defending “every inch” of its territory from Day 1.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15ukraine-nato-transformed-1-hgml/15ukraine-nato-transformed-1-hgml-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Peering Into Volcanoes at Tanzania’s Crater Highlands</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Uninterested in the extreme altitudes of Kilimanjaro, a writer opted instead to explore the region’s vast calderas, abundant wildlife and rare forms of lava.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/20/multimedia/20travel-tanzania-crater-highlands-04-fkmj/20travel-tanzania-crater-highlands-04-fkmj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>In Pakistan, Economic Crisis Mutes Ramadan Celebrations</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rampant inflation, damaged crops and the war in Ukraine have sent food prices soaring during the Muslim holy month of daytime fasting and nighttime feasting.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16pakistan-ramadan-1-qckp/16pakistan-ramadan-1-qckp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Diplomacy, aid and a court hearing for Evan Gershkovich: What to watch for this week.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>By CARLY OLSON</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17ukraine-briefing-lookahead-bkzp/17ukraine-briefing-lookahead-bkzp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Chaotic fighting in Sudan.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/17ambriefing-europe-nl-promo-april/17ambriefing-europe-nl-sudan-1-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sudan Rocked by Explosions and Gunfire</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Smoke billowed from the airport in Khartoum, Sudan, as fighting between rival factions intensified.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17sudan-cover-czlw/17sudan-cover-czlw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sudan Fears ‘Ghost of Civil War’ as Explosions Rock Capital</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The civilian death toll is climbing and concern over a broader conflict is growing as rival generals vie for control of Africa’s third-largest country.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16sudan-1-vtzb/16sudan-1-vtzb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing: Fighting in Sudan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Also, an extrajudicial killing on live TV in India.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/041723ambriefing-asia-promo/041723ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sudan Is Not Accustomed to Fighting in Its Capital</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fighting in the country has been far more frequent in the east, west and south instead of its capital, Khartoum.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16sudan-blog-other-conflicts01-qjmw/16sudan-blog-other-conflicts01-qjmw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Under the Shadow of War, Kyiv Celebrates Orthodox Easter</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Thousands of Christians gathered in the Ukrainian capital to mark Holy Week, one year after Ukraine’s army forced Russian troops back from the area around Kyiv.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16ukraine-easter-photos-01-kmpj/16ukraine-easter-photos-01-kmpj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Killing on Live TV Renews Alarm About India’s Slide Toward Extrajudicial Violence</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The victim was a former politician, a notorious criminal and a Muslim. Afterward, two government officials described the killing as akin to divine justice.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16india-killing-01-qpzv/16india-killing-01-qpzv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A Japanese Island Where the Wild Things Are</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>In the pantheon of yokai, spooky beings of Japanese folklore embody anxieties ancient and modern. On Shodoshima, an art contest helps bring new ones to life.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/00japan-yokai-ckfz/00japan-yokai-ckfz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Finding the Pentagon Leak Suspect</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>How The Times identified the suspect at the center of the Pentagon leak before the authorities announced his name.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16-THE-MORNING-NL-promo/16-THE-MORNING-NL-Jack-Teixeira-wtgc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>E.U. Cries Foul as Poland and Hungary Ban Ukraine Grain Imports</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The European Union lifted tariffs on Ukrainian grain last year. But farmers say they are suffering from a glut of produce in Europe.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/16ukraine-ledeall-1-pzcv/16ukraine-ledeall-1-pzcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>When Freezing Sperm Makes a Patriotic Statement</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Some Ukrainian soldiers are trying to ensure that even if they die in the war, their partners can still build families. They also want to send Russia a message of defiance.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/26/multimedia/00Ukraine-Sperm-01-hqgv/00Ukraine-Sperm-01-hqgv-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Taking On Erdogan, Turkish Opposition Leader Banks on Everyman Appeal</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ahead of next month’s elections, Kemal Kilicdaroglu has pledged to undo President Recep Tayyip Erdogan’s legacy with a focus on tackling inflation and strengthening democracy.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06turkey-opposition-01-hwmc/06turkey-opposition-01-hwmc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tracking the Fighting in Sudan: Maps and Videos</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>It was unclear who was in control of the country after widespread fighting between rival factions of the military.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/world/2023-04-16-sudan-clashes-promo/2023-04-16-sudan-clashes-promo-thumbWide-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Explosive Is Thrown as Japanese Prime Minister Visits Wakayama</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Footage shows the police holding down a man, believed to be the person who set off the explosion.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15xp-japan-blast-gctv/15xp-japan-blast-gctv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Who is General Hamdan, the leader of the Rapid Support Forces?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A former camel trader who led a militia accused of genocidal violence in Darfur, Lt. Gen. Mohamed Hamdan, widely known as Hemeti, leads the Rapid Support Forces paramilitary unit.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15sudan-Mohamed-Hamdan-Dagalo-1-lbkh/15sudan-Mohamed-Hamdan-Dagalo-1-lbkh-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Deadly Clashes Erupt in Sudan’s Capital</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fighting between the Sudanese Army and a powerful paramilitary group broke out in Khartoum, Sudan, after months of rising tensions. Video footage shows smoke billowing from the Khartoum airport and people taking cover inside.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15sudan-fighting-header-hpwk/15sudan-fighting-header-hpwk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Who is Gen. Abdel Fattah al-Burhan, the head of Sudan’s military?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Little known before 2019, he rose to power in the aftermath of the military-led coup that ousted Omar Hassan al-Bashir, the longtime leader who was deposed after popular uprisings.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/world/15sudan-Abdel-Fattah-al-Burhan/15sudan-Abdel-Fattah-al-Burhan-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Boy’s Suicide in Poland Spurs Backlash Against State Media Tactics</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A public radio station in the city of Szczecin is under fire for helping to identify a 15-year-old sex abuse victim, the son of a local opposition politician, who later killed himself.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/05/09/multimedia/09poland-opposition-01-wpjh/09poland-opposition-01-wpjh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Pentagon Leaks: New Twists in a Familiar Plot</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Some in Ukraine even welcomed the disclosures as confirming what they have been saying for months — that its forces desperately need more weapons and munitions.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15leaks-analysis-01-vfjk/15leaks-analysis-01-vfjk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Reconsidering Tax Day</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Make it a time of personal inventory, of looking back and taking account.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15-THE-MORNING-NL-promo/15-THE-MORNING-NL-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Death Toll From Russian Missile Attack in Eastern Ukraine Climbs to 11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rescuers were searching through rubble a day after the city of Sloviansk was struck as fighting raged in Bakhmut.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/15-ukraine-ledeall-01/14-ukraine-briefing-sloviansk-06-jhlb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>We Want to Hear From Canada Letter Readers</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>An overview of what the newsletter is and isn’t and what we try to achieve each week.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15canadaletter-newsroom-mvbh/15canadaletter-newsroom-mvbh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>At Christianity’s Holiest Site, Rival Monks Struggle to Turn Other Cheek</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>At the Church of the Holy Sepulcher in Jerusalem, on the site where Jesus is believed to have been crucified and resurrected, a centuries-long real estate spat tends to flare up at Orthodox Easter.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/15/world/00jerusalem-church-dispatch-1/merlin_213549339_5f436d4c-8cea-416c-b7ac-f6fe4f27be6e-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>‘The Tale of Genji’ Is More Than 1,000 Years Old. What Explains Its Lasting Appeal?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>The book is often described as the world’s first novel and a touchstone of Japanese literature. But some of its themes, including its take on gender and power, have echoed over centuries.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/21/multimedia/00genji1-sub-pkhw/00genji1-sub-pkhw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Why China’s Leader Hasn’t Called the President of Ukraine</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>China had been Ukraine’s top trade partner, importing barley, corn and arms. Now, Russia’s war raises the question: Is there still a relationship?</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15china-ukraine-01-mvtc/15china-ukraine-01-mvtc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The Hard-Fought Journey From East Africa to an Award-Winning Detroit Restaurant</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Hamissi Mamba, a refugee from Burundi, knew little of American culture when he arrived eight years ago and learned English watching the “Peppa Pig” cartoon. But he opened his dream restaurant, and the accolades have rolled in.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14Making-It-Work-01-01-mfbg/14Making-It-Work-01-01-mfbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>New Mars Map Lets You ‘See the Whole Planet at Once’</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Scientists assembled 3,000 images from an Emirati orbiter to create the prettiest atlas yet of the red planet.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/06mars-map-01b-qtjf/06mars-map-01b-qtjf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Rival Generals Unleash Fighting in Sudan, Dashing Dreams of Democracy</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>One of Africa’s largest countries is spinning out of control, as weeks of mounting tensions between two military leaders erupted in battles in the capital, Khartoum, and in other cities.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15sudan-fighting-header-hpwk/15sudan-fighting-header-hpwk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Japan’s Prime Minister Safely Evacuated After Blast</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Prime Minister Fumio Kishida was about to give a campaign speech in the western Japanese city of Wakayama when a loud explosion was heard.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15xp-japan-blast-bflk/15xp-japan-blast-bflk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Brazil’s Lula Meets Xi in China as They Seek Path to Peace in Ukraine</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Brazil has been reluctant about choosing sides in the war, as its new president, Luiz Inácio Lula da Silva, seeks to rebuild the country’s ties with Beijing.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14ukraine-ledeall-kbzl/14ukraine-ledeall-kbzl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Airman Charged in Leak of Classified Documents</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jack Teixeira, 21, was granted a top-secret security clearance in 2021, which was required for his job, the Justice Department complaint said.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14dc-intel-lbfg/14dc-intel-lbfg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bird Flu Sample from Chilean Man Showed Some Signs of Adaptation to Mammals</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>These changes were unlikely to be enough to allow the virus to spread easily among humans, and the health risk to the public remains low, experts said.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14BIRD-FLU-pqcf/14BIRD-FLU-pqcf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>A Ukrainian toddler was pulled from the rubble after a missile strike, but he did not survive.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The 2-year-old boy and at least seven other people were killed after a Russian attack in Sloviansk, Ukrainian officials said. His father is believed to still be trapped in the carnage.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14-ukraine-briefing-sloviansk-promo/14-ukraine-briefing-sloviansk-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>In Ireland, Biden Makes a Case for His Future, Drawing on a Family Story Rooted in Hope</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>He may not be a candidate yet, but President Biden delivered a message of optimism to the people of Ireland. It was a possible preview of a campaign to come.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14BIDEN-ROOTS-wzft/14BIDEN-ROOTS-wzft-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Biden Overcome After Seeing Priest Who Gave Last Rites to Son Beau</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>President Biden was in tears after the surprise meeting with the priest, Friar Frank O’Grady, who was given a last-minute security approval to meet with the president.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14biden-beau-1-qzlb/14biden-beau-1-qzlb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Four Sons of El Chapo Face Sweeping New Charges in Fentanyl Indictments</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The charges, in five related cases, offered a panoramic view of how the deadly drug was created, transported and ultimately sold by the Sinaloa cartel on American streets.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/15/multimedia/15dc-sinaloa-cmlk/15dc-sinaloa-cmlk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Pressure Mounts on China to Offer Debt Relief to Poor Countries Facing Default</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>There was optimism at the spring meetings of the I.M.F. and World Bank that China will make concessions over restructuring its loans.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14dc-globaldebt-01-kjtz/14dc-globaldebt-01-kjtz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Billy Waugh, 93, ‘Godfather of the Green Berets,’ Is Dead</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>He was a Special Forces soldier during the Vietnam War and then worked for the C.I.A., tracking Osama bin Laden in Sudan and fighting in Afghanistan after 9/11.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/13waugh-02-lvwb-print1/13waugh-02-lvwb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The (Brief) Diary of a Supernova</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>In a recent Webb telescope image, astronomers simultaneously captured three moments during an ancient supernova explosion marking the death of a star.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/18/science/sci-gravlens-burst-08/sci-gravlens-burst-08-thumbWide-v3.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Core of Macron’s Pension Plan Clears Key Legal Test as Protesters Fume</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A constitutional council reviewing President Emmanuel Macron’s law upheld an increase in the retirement age, but struck down some sections. Anger over the plan remains high.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14france-new1-gwjz/14france-new1-gwjz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>How Much Power Should the Courts Have?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>In Israel, the United States and other democracies, bitter battles are being waged over the same question.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/23/magazine/23mag-judicial/23mag-judicial-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>The Great Goat War of Southern France</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A former Parisian moved to the country, fell in love with goats and let them roam free and multiply. Her winemaking neighbors are not enchanted.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/00france-goats-02-phgm/00france-goats-02-phgm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Russia’s ambassador says the U.S. threatened ‘retaliatory measures’ unless a jailed reporter is released.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>American officials and The Wall Street Journal have vehemently denied the accusation that Evan Gershkovich was engaged in any kind of spying activity.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14ukraine-briefing-Gershkovich-01-kmzp/14ukraine-briefing-Gershkovich-01-kmzp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Will Abortion Kill the Filibuster?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Courts don’t make laws. Congress does.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14themorning-promo/14themorning-lede-fkqp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>This is how Ukraine has survived the war on its power grid.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>By MARC SANTORA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/11ukraine-briefing-mines-VERSION-02/11ukraine-briefing-mines-VERSION-02-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Learning to Love My Incomprehensible Kiwi Accent</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>It’s surprising how hard it is for New Zealanders to make themselves understood in America.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14ozletter302-1-lkwc/14ozletter302-1-lkwc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Your Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>An arrest in the document leak in the U.S.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14ambriefing-europe-airman-leak/14ambriefing-europe-airman-leak-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Germany Quits Nuclear Power, Ending a Decades-Long Struggle</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The last three plants in Germany are scheduled to shut down by Saturday, while other European countries are looking to expand nuclear energy.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14german-nuclear-print1/00german-nuclear-01-fqkb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>North Korea Says It Launched a Solid-Fuel ICBM, a First</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>If successfully developed, solid-fuel technology would be a significant advance, making the North’s missiles easier to move and harder to target.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14nkorea-jqzb/14nkorea-jqzb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>The Airman Who Gave Gamers a Real Taste of War</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A group liked online war games. But then Jack Teixeira, a 21-year-old National Guard airman, began showing members classified documents, they say.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13gaming-leak-group-promo-wbvq/13gaming-leak-group-promo-wbvq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ex-C.I.A. Psychologist Re-enacts Interrogation Techniques for Guantánamo Court</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Lawyers for a Saudi prisoner had the psychologist show some of his practices in an effort to exclude evidence as derived from torture.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13dc-gitmo-gchj/13dc-gitmo-gchj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Your Friday Briefing: An Arrest in the Documents Leak</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Also, the WTA will return to China.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/14ambriefing-asia-promo/14ambriefing-asia-nl-leak-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iran and Nicaragua Discussed Military Cooperation, Leaked Report Says</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The two countries had found common ground in opposing “perceived U.S. efforts to expand influence in Latin America,” according to an intelligence update based on C.I.A. intercepts.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13iran-nicaragua-lbzh/13iran-nicaragua-lbzh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Biden, Blending the Personal and the Diplomatic, Thanks Ireland for Backing Ukraine</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>“I’m at home,” the president told the Irish Parliament to thunderous applause. “I only wish I could stay longer.”</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13biden-diplo-lgkz/13biden-diplo-lgkz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>After Shunning Assad for Years, the Arab World Is Returning Him to the Fold</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>President Bashar al-Assad of Syria was isolated for years after brutally crushing his country’s Arab Spring uprising. But in most Arab capitals today, the only question is how — not whether — they should deal with him again.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13syria-1-wtbg/13syria-1-wtbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Protests Continue in France Over Macron’s Pension Overhaul</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Protesters across France demonstrated ahead of a constitutional ruling that may be the final legal obstacle in President Emmanuel Macron’s push to raise the legal retirement age to 64 from 62.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13France-protests-01-fpjv/13France-protests-01-fpjv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Biden Plans an Electric Vehicle Revolution. Now, the Hard Part.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The administration’s push to supercharge E.V. sales must now surmount resistance from manufacturers and consumers as well as likely legal challenges.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13cli-EVs-01-vzkh/13cli-EVs-01-vzkh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>As World Warms, Droughts Come On Faster, Study Finds</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>When rains fail unexpectedly, higher temperatures can more rapidly parch the ground, to devastating effect.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/climate/13cli-flashdrought-02/13cli-flashdrought-02-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Northern Ireland Shows How Hard It Is to End a Conflict</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Northern Ireland had tremendous economic, political, and geographic advantages — but ending the Troubles still proved extremely difficult.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/05/13/multimedia/13Int-NorthernIreland-01-lhtm/13Int-NorternIreland-01-lhtm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Once Shocking, U.S. Spying on Its Allies Draws a Global Shrug</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Compared with revelations in 2013 of mass surveillance by the National Security Agency, intelligence reports in a trove of recently leaked documents have resulted in limited outrage abroad.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/00dc-spying-kzlb/00dc-spying-kzlb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>F.B.I. Arrests National Guardsman in Leak of Classified Documents</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Authorities say Jack Teixeira, a 21-year-old member of the Massachusetts Air National Guard, posted sensitive materials in an online chat group.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13dc-leaks-lede-hmwl/13dc-leaks-lede-hmwl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>The U.S. investigation into the leaked Pentagon documents is ‘getting close’ to finding answers, Biden says.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>By MICHAEL D. SHEAR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13ukraine-briefing-Biden-leaks-topart-fvgp/13ukraine-briefing-Biden-leaks-topart-fvgp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Seeking Visibility, Pope’s Commission on Sex Abuse Gets a New Home</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>In moving from cramped offices to a palazzo, the organization is aiming for more visibility, and to be better able to welcome victims.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12vatican-palace-01-hbvz/12vatican-palace-01-hbvz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2 Arrested in Hong Kong After Dousing Police With Water Guns</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Songkran, a traditional Thai festival, often involves splashing and squirting. But the continuing crackdowns on all forms of dissent in Hong Kong made things different this year.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13hk-watergun-kwlj/13hk-watergun-kwlj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Protests Persist in France as Macron’s Pension Law Nears Last Hurdle</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A constitutional ruling expected on Friday may be the final legal obstacle for President Emmanuel Macron’s push to increase the retirement age. But the plan hasn’t become any more popular.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13France-protests-01-fpjv/13France-protests-01-fpjv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Belarus extradites a Russian father convicted after his daughter drew an antiwar picture, state news media reports.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Aleksei Moskalyov, a single father, escaped house arrest in Russia after he was charged with “discrediting” the Russian Army over the war in Ukraine.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/28/multimedia/13ukraine-briefing-moskalyov-01/28russia-child-01-ktpg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>That Famous Black Hole Just Got Even Darker</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Astronomers recently used artificial intelligence to fine-tune the first-ever image of a black hole, captured in 2019 by the Event Horizon Telescope.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/science/13SCI-BLACKHOLE-vid-cover/13SCI-BLACKHOLE-vid-cover-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Inflation Keeps Cooling</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Prices aren’t climbing as quickly as they once were.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13themorning-promo/13themorning-lede-gtqk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>People who wouldn’t be allowed anywhere near the battlefield in a U.S.-led war are active on the Ukrainian front.</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>People who would not be allowed anywhere near the battlefield in a U.S.-led war are active on the Ukrainian front, with ready access to American weapons.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/23/multimedia/25ukraine-briefing-volunteers-VERSION/00Ukraine-volunteers-01-fmbk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>An ambulance was called for Navalny, his spokeswoman says, as concerns over his health grow.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Prison staff were forced to call an ambulance for Aleksei A. Navalny, the jailed Russian opposition leader, last week, his spokeswoman said.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13ukraine-briefing-navalny-01-jlbg/13ukraine-briefing-navalny-01-jlbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>South Korean Actress Is Found Dead at 26</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Though the cause of the unexpected death of Jung Chae-yull was not disclosed, it has renewed concerns about mental health in the country’s highly competitive entertainment industry.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13skorea-actress-02-qljh/13skorea-actress-02-qljh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>How Putin Became a Hero on African TV</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Pro-Russian content presenting a distorted version of the war in Ukraine and promoting Russia’s interests in Africa is gaining an audience on the continent.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12africa-russia-disinfo-4-vwmf/12africa-russia-disinfo-4-vwmf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>How Janelle Jones’s Story About Black Women and the Economy Caught On</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>The first Black woman to serve as chief economist at the Labor Department advanced the idea that lifting up people on the margins helps everyone else, too.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/27/multimedia/00Transforming-Economy-1-mhqw/00Transforming-Economy-1-mhqw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Inside Bakhmut: Pushed into a corner, the Ukrainian military is determined to hold out.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>By ANDREW E. KRAMER</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Lonely Cry for Action as China Locks Up Japanese Citizens on Spy Charges</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hideji Suzuki says Japan failed him during his six years in a Chinese prison. China’s recent arrest of a Japanese citizen is again testing Tokyo’s resolve.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/00japan-spy-zkgh/00japan-spy-zkgh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Ukraine presses allies for more aid before an expected spring counteroffensive.</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>By BEN SHPIGEL</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13ukraine-briefing-zelensky-offensive-sub-zmpt/13ukraine-briefing-zelensky-offensive-sub-zmpt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Poland’s prime minister says Ukraine needs South Korean artillery shells.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>By JULIAN E. BARNES and ADAM ENTOUS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/13ukraine-briefing-poland-shells-VERSION/12dc-us-poland-kjht-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Your Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>The battle for Bakhmut.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/13ambriefing-europe-nl-bakhmut/13ambriefing-europe-nl-bakhmut-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>New Leaked Documents Show Broad Infighting Among Russian Officials</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>The additional documents also suggest the breach of American intelligence agencies could contain far more material than previously believed.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13russia-leaks1-fcqz/13russia-leaks1-fcqz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Miscommunication Nearly Led to Russian Jet Shooting Down British Spy Plane, U.S. Officials Say</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Recently leaked intelligence documents called the incident, last year, a near shoot down. Officials said it was more serious than originally reported.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10ukraine-briefing-jet-missile-vhwf/10ukraine-briefing-jet-missile-vhwf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Macron Stands by Comments on Taiwan, but Says France Backs Status Quo</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>An earlier suggestion by the French president that the security of Taiwan was not Europe’s immediate concern had drawn sharp criticism from some Western allies and commentators.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12macron-taiwan-mhvt/12macron-taiwan-mhvt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>‘I’m Comin’ Home’: Biden Takes a Tour of His Irish Heritage</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>With his sister, Valerie Biden Owens, and his son, Hunter Biden, in tow, the president spent the first day of his trip to Ireland steeped in family lore.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ireland-biden-scene-cvft/12ireland-biden-scene-cvft-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Your Thursday Briefing: Ukraine’s Fight for Bakhmut</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Also, U.S. proposals to revolutionize the auto industry.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/13ambriefing-asia-nl-ukraine-PROMO-01/13ambriefing-asia-nl-ukraine-01-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Leaked document says Russia’s ally Serbia is sending arms to Ukraine.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>The revelation could create tensions between the Kremlin and the Balkan nation.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ukraine-briefing-serbia-arms-topart-hwqj/12ukraine-briefing-serbia-arms-topart-hwqj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Biden’s Visit to Ireland, in Pictures</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>President Biden’s three-day trip will mix diplomacy and personal genealogy as he meets with Irish leaders and traces his own family roots.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/16/multimedia/00biden-photos-add-jtqg/00biden-photos-add-jtqg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Ukraine Needs South Korean Artillery Shells, Poland’s Prime Minister Says</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Leaders in Seoul need assurances that the United States would offer support in the face of any aggressive response from China or Russia, Prime Minister Mateusz Morawiecki said.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12dc-us-poland-kjht/12dc-us-poland-kjht-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>After Months of Turmoil, Israel’s President Sees Hope for Judicial Compromise</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Isaac Herzog is leading talks to resolve a crisis provoked by a divisive government plan to overhaul the courts. In an interview with The Times, he said he was optimistic about a breakthrough.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12israel-herzog-01-gpjk/12israel-herzog-01-gpjk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>What if A.I. Sentience Is a Question of Degree?</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A conversation with Nick Bostrom, a philosopher at Oxford, who has spent decades preparing for the day artificial intelligence is capable of anything the human brain can do.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12theinterpreter-nl-gjvc/12theinterpreter-nl-gjvc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Ukraine investigates after a video appears to show the beheading of a prisoner of war.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>The U.N. mission monitoring human rights in Ukraine said it was “appalled” by the video, which appeared to record the beheading of a Ukrainian soldier by Russian troops.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ukraine-briefing-ukraine-killings-promo-zvcb/12ukraine-briefing-ukraine-killings-topart-zvcb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>The Final Blocks: Inside Ukraine’s Bloody Stand for Bakhmut</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Pushed into a shrinking corner of the devastated city, the Ukrainian military is determined to hold out for strategic reasons, even as allies question the cost.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ukraine-bakhmut-newpromo/12ukraine-bakhmut-03-gzkf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Prince Harry Will Attend King Charles’s Coronation Without Meghan, Palace Says</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>The Duke of Sussex will travel to London for the May 6 ceremony amid an ongoing public rift among members of the royal family.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12xp-harry-qltm/12xp-harry-qltm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>A Panda Is Coming Home, and Her Chinese Fans Say It’s About Time</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ya Ya, who has been at the Memphis Zoo for 20 years, will soon return to China, where a campaign accusing the zoo of mistreating her has resonated on social media.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12china-panda-01-PROMO/12china-panda-01-vpcz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ukraine asks India for more humanitarian and diplomatic support.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>By SAMEER YASIR</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ukraine-briefing-india-wjhk/12ukraine-briefing-india-wjhk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>The Battle Over Abortion Drugs</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>We explain the dueling rulings on abortion and what’s likely to happen next.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12themorning-promo/12themorning-lede-hpmz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Brazil won’t sell Ukraine weapons, but it is offering to broker peace.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>By ANDRÉ SPIGARIOL and JACK NICAS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/12ukraine-briefing-brazil-weapons-VERSION/00brazil-weapons-01-bvml-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>A Problem for Ukraine: Countries Like Brazil Won’t Sell It Arms</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ukraine wants to buy weapons from Brazil, but the South American giant has repeatedly declined. Instead, it is offering to broker peace.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/00brazil-weapons-01-bvml/00brazil-weapons-01-bvml-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Read Your Way Through Kerala</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A strip of lush land at the tip of India where spices grow wild, Kerala has long drawn the gaze of outsiders. Here’s Abraham Verghese’s guide to its literature, which nods at these influences but is very much its own.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/books/review/00LitGuide-KERALA/00LitGuide-KERALA-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>As U.S. Tries to Isolate China, German Companies Move Closer</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Some are expanding in China, reluctant to leave a huge market they need to finance operations back home.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12Germany-China-03-pfjq/12Germany-China-03-pfjq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>E.P.A. Lays Out Rules to Turbocharge Sales of Electric Cars and Trucks</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>The Biden administration is proposing rules to ensure that two-thirds of new cars and a quarter of new heavy trucks sold in the United States by 2032 are all-electric.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12cli-evs-bgkt/12cli-evs-bgkt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>The Young Muslims Challenging Islam’s Status Quo</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A conservative religious movement, spread through social media, has taken hold among Indonesian youth. The government wants to curb its influence.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/14/multimedia/00indonesia-islam-01-gvzk/00indonesia-islam-01-gvzk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bye-Bye, Ya Ya: Giant Panda Is Heading Home to China</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>As Ya Ya leaves the Memphis Zoo, some observers have said her patchy fur is sign of mistreatment. A spokesperson said it’s due to a genetic skin condition.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12china-panda-01-vpcz-videocover/12china-panda-01-vpcz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Foreign responses to the military documents leak.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12ambriefing-europe-nl-promo/12ambriefing-europe-nl-leak-pjft-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>After 25 Years of Peace in Northern Ireland, Some Still Wait for Prosperity</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>While the Good Friday Agreement brought undeniable progress, some of the most deprived communities remain disillusioned about the opportunities that failed to materialize.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12nireland-voices-hclp/12nireland-voices-hclp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>U.S. Officials Speak to Ukrainians After Document Leaks</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Defense Secretary Lloyd J. Austin III and Secretary of State Antony J. Blinken talked to their counterparts in Kyiv, but offered little detail on the investigation into the breach.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11dc-intel-qkwj/11dc-intel-qkwj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A leaked document outlines 4 ‘wild card’ scenarios in the Russia-Ukraine conflict.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>The scenarios, as assessed by the Defense Intelligence Agency, include the deaths of Presidents Vladimir V. Putin of Russia and Volodymyr Zelensky of Ukraine.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11ukraine-briefing-wild-card-document/11ukraine-briefing-wild-card-document-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Russia Moves to Make Draft Evasion More Difficult</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A new law would bar anyone called up to fight in Ukraine from leaving the country, among other restrictions, even as the Kremlin insists it is not planning a new conscription.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11ukraine-ledeall-vtbg/11ukraine-ledeall-vtbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Biden Celebrates a Northern Ireland ‘Made Whole by Peace’ as Tensions Persist</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>President Biden commemorated the 25th anniversary of the Good Friday Agreement in Northern Ireland, encouraging citizens not to let the enemies of peace win, before shifting focus to his ancestry.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/12dc-biden-ireland-01-hbfl/12dc-biden-ireland-01-hbfl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>From Red Carpet to Doghouse: Macron Returns From China to Allied Dismay</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Criticism of the French president’s performance in Beijing has been scathing among some allies, who saw him as cozying up to Beijing.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11france-macron-2-pvmg/11france-macron-2-pvmg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Leadership of Foundation Honoring Justin Trudeau’s Father Quits</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>The Pierre Elliott Trudeau Foundation said that accusations of Chinese meddling in its affairs had made it impossible for it to function as before.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11canada-china-tlwb/11canada-china-tlwb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing: A Gloomy Economic Forecast</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Also, Myanmar’s junta killed more than 100 in a major airstrike.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/12/multimedia/041223ambriefing-asia-promo1/12ambriefing-asia-imf2-fkwv-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Volcano Erupts in Russia, Spewing Ash Into the Stratosphere</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>The eruption of Shiveluch, on a remote peninsula in eastern Russia, sent a giant cloud of debris into the sky and smothered villages in a thick layer of brown volcanic dust.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11russia-volcano-02-vkwb/11russia-volcano-02-vkwb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Paul Whelan’s family says they’re happy for the U.S. to make ‘whatever concessions they can’ to bring him home.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Mr. Whelan, a former Marine, has been detained in Russia for more than four years, and has seen two other Americans arrested and released in that time.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11ukraine-briefing-whelan-01-kgpj/11ukraine-briefing-whelan-01-kgpj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Biden Administration Proposes Evenly Cutting Water Allotments From Colorado River</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>As the river shrinks, the Biden administration is getting ready to impose, for the first time, reductions in water supplies to states.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11cli-COLORADORIVER-01-mbhc/11cli-COLORADORIVER-01-mbhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Egypt rejects a report that a leaked Pentagon document outlines its plan to ship arms to Russia.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>The Washington Post said the document describes an Egyptian plan to secretly produce rockets, artillery rounds and gunpowder for Russia.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11ukraine-briefing-russia-mideast-leaks-02-ztkc/11ukraine-briefing-russia-mideast-leaks-02-ztkc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Russia’s Shiveluch Volcano Spews Huge Ash Cloud</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Video from a Russian state news agency appears to show streets, cars and houses blanketed in a thick layer of volcanic ash.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11russia-volcano-02-vkwb/11russia-volcano-02-vkwb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>French Police Face Scrutiny for Heavy Hand During Pension Protests</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>An audio recording of officers threatening and intimidating young people has reignited a debate over harsh and discriminating tactics.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/00france-police-01-wvhq/00france-police-01-wvhq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Myanmar Military Bombs Civilian Gathering, Killing at Least 100</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Video of the aftermath shows burned motorcycles, destroyed buildings and debris strewn across Pazigyi Village, located in northern Myanmar.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/video/11vid-myanmar-still/11vid-myanmar-still-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Airstrike in Rebel-Held Region of Myanmar Kills at Least 100</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>It was the junta’s deadliest attack since seizing power in 2021. As resistance forces have become better armed, the military has doubled down on its strategy of carrying out air raids and targeting civilians.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/video/11vid-myanmar-still/11vid-myanmar-still-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>I.M.F. Lowers Growth Outlook Amid Financial System Tremors</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>The International Monetary Fund says a painful slowdown, which could include a recession, has become a bigger risk for the global economy.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11dc-globalecon-01-hpgv/11dc-globalecon-01-hpgv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>The Military’s Leaked Secrets</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Officials are worried that leaked documents could damage U.S. operations around the world.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11the-morning-promo/11the-morning-lede-mbgc-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>How Ukraine’s Power Grid Survived So Many Russian Bombings</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Russia was determined to break Ukrainians’ will by plunging them into cold and darkness. Its failure, in the face of Ukrainian resilience, offers lessons as winter has released its icy grip.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00ukraine-energy-promo-qtwp/00ukraine-energy-promo-qtwp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Leaked Documents and Accusations of U.S. Spying Spark Outrage in Seoul</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>The reaction to the leak in South Korea is perhaps the strongest so far as the Biden administration scrambles to contain the damage from apparent spying on allies.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11skorea-leaked-documents-qkbh/11skorea-leaked-documents-qkbh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>In China, Young People Ditch Prestige Jobs for Manual Labor</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Some people who’ve walked away from China’s grueling corporate culture say it’s worth the financial sacrifice. “I was tired of living like that,” one said.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/00china-jobs-01-mzlg/00china-jobs-01-mzlg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Online clues may narrow the search for the leaker of Pentagon war documents, U.S. officials say.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>By JULIAN E. BARNES and ERIC SCHMITT</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/11ukraine-briefing-dc-intel-VERSION/10dc-intel-qbcw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ukrainian soldiers practice a dangerous art: Finding Russian mines.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Finding Russian mines has become a dangerous art for</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/00ukraine-mines-02-zqlg-copy/00ukraine-mines-02-zqlg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>The investigation into leaked Ukraine war documents.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/11ambriefing-europe-nl-promo-april/11ambriefing-europe-nl-dc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>For Biden, an Era When Treaties Are More Likely to Be Broken Than Brokered</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>The president’s trip to Northern Ireland will mark the 25th anniversary of the Good Friday Agreement, which ended decades of violence. But such breakthroughs are harder to achieve in today’s fractious world.</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10dc-biden-agreement-zvhb/10dc-biden-agreement-zvhb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mexico Charges 4 Soldiers in Killings of 5 Civilians in Border City</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>The shooting deaths, in the cartel-dominated city of Nuevo Laredo, caused outrage because the people the soldiers fired on had apparently been unarmed.</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10mexico-lede-tvfc/10mexico-lede-tvfc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Clues Left Online Might Aid Leak Investigation, Officials Say</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>A large number of people potentially had access to the Pentagon intelligence documents posted on social media.</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10dc-intel-qbcw/10dc-intel-qbcw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>What Do Peace Talks in Yemen Mean for Its 8-Year War?</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>The surprise rapprochement between Saudi Arabia and Iran, whose rivalry fueled the war, has raised a glimmer of hope for a breakthrough in resolving one of the world’s worst crises.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10yemen-1-bjpk/10yemen-1-bjpk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>What does ‘wrongfully detained’ mean?</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich, a reporter for The Wall Street Journal, is the latest American to bear the designation, which indicates that the U.S. government sees him as the equivalent of a political hostage.</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10ukraine-briefing-wrongful-detention-explainer-pczh/10ukraine-briefing-wrongful-detention-explainer-pczh-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing: China’s Display of Force Around Taiwan</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Also, President Biden prepares to visit Northern Ireland and Ireland.</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/041123ambriefing-asia-promo1/11ambriefing-asia-chinataiwan-hpzf-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>The State Department declares Evan Gershkovich ‘wrongfully detained’ by Russia.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>The finding means that the U.S. government sees the Wall Street Journal reporter as the equivalent of a political hostage.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10ukraine-briefing-gershkovich0-lbkm/10ukraine-briefing-gershkovich0-lbkm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Netanyahu Reverses Firing of Israeli Defense Minister</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Yoav Gallant was dismissed last month after expressing concern about the pace of Prime Minister Benjamin Netanyahu’s judicial overhaul plan.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10israel-1-tmwc/10israel-1-tmwc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Italy’s Coast Guard Rescues Hundreds of Migrants at Sea</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>On Monday, crews from Italy rescued two more vessels after saving about 2,000 migrants from boats in the Mediterranean Sea over the weekend, officials said.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10europe-migrants-zmlc/10europe-migrants-zmlc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Italy’s Coast Guard Rescues Hundreds of Migrants in ‘Chaotic’ Few Days at Sea</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>About 2,000 people have been rescued since Friday, and ships were dispatched to help boats carrying 1,200 more on Monday as disquiet grows about the high numbers undertaking the risky crossing.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10europe-migrants-zmlc/10europe-migrants-zmlc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>After protests in Poland over Ukrainian grain supplies, Kyiv and Warsaw reach a deal.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Poland, Romania and Hungary, all of which border Ukraine and are members of the European Union, have struggled with a glut of grain and other Ukrainian agricultural products since last year.</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10poland-ukraine-wztg/10poland-ukraine-wztg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Lethal Surprises Hidden in the Grass: Russia’s Trip Wires and Land Mines</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>As Moscow’s troops set booby traps in forests, houses and backyards, finding them has become a dangerous art for Ukrainian soldiers.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/00ukraine-mines-02-zqlg/00ukraine-mines-02-zqlg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Dalai Lama Apologizes Over an Exchange With a Boy</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>In a video, the 87-year-old Tibetan spiritual leader sticks out his tongue and asks the child to “suck” it. His office said the actions had been lighthearted.</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10india-dalailama-jhwf/10india-dalailama-jhwf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>China Brandishes Military Options in Exercises Around Taiwan</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>The People’s Liberation Army’s ships, planes and troops held three days of drills in a spectacle designed to warn Taiwan against challenging Beijing.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10CHINA-TAIWAN-01-zqcp/10CHINA-TAIWAN-01-zqcp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Biden Must Tread Rocky Path in Belfast Before Tending His Irish Roots</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>President Biden, who has ancestral ties to Ireland, will mark the 25th anniversary of the Good Friday Agreement in Northern Ireland before heading south.</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10UK-BIDEN-01-fqph/10UK-BIDEN-01-fqph-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Russia Adopts ‘Scorched Earth’ Tactics in Bakhmut, a Ukrainian Commander Says</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Gen. Oleksandr Syrsky visited Bakhmut on Sunday and said the situation is difficult but under control.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/10ukraine-briefing-scorched/07ukraine-briefing-promo-430pm-kpzq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>The Jailing of Evan Gershkovich</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>We tell you the story of the American reporter who has been imprisoned in Russia.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10themorning-lede-promo/10themorning-lede-2-zlkt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>China Conducts Military Drills Near Taiwan Over Three Days</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>After President Tsai Ing-wen of Taiwan visited the U.S., China put on a show of force and warned Taipei against building closer ties with Washington.</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10CHINA-TAIWAN-gjmf/10CHINA-TAIWAN-gjmf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>China Sentences Leading Rights Activists to 14 and 12 Years in Prison</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Xu Zhiyong and Ding Jiaxi were detained after organizing a small seaside gathering of activists to discuss human rights. Their lengthy sentences point to Beijing’s intolerance of dissent.</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10china-activists-wtqg/10china-activists-wtqg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Truffle Hunting in Syria, Once a Beloved Pastime, Is Now a Danger</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>A cherished spring tradition has become a perilous gamble to earn a bit of desperately needed income during an economic crisis after 12 years of war. Dozens of foragers have been killed already this year.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00syria-truffles-jgpm/00syria-truffles-jgpm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>What Peace in Northern Ireland Looks Like Now</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>As it commemorates a quarter-century since the Good Friday Agreement, the region is searching for its place and trying to move on from a legacy of bloody divisions.</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10uk-goodfriday-photo-01-lfvg-promo/10uk-goodfriday-photo-01-lfvg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Europe has pledged a million shells for Ukraine a year, but it probably can’t deliver.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>By LARA JAKES</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/10ukraine-briefing-ukraine-ammo-version01/00ukraine-ammo-ghkm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Diplomatic forums, the Security Council and India: What to watch for this week.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>By CARLY OLSON</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10ukraine-briefing-lookahead-tvhc/10ukraine-briefing-lookahead-tvhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Ukraine’s forces say they have so far thwarted Moscow’s efforts to sever supply lines around Bakhmut.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>By ANDREW E. KRAMER</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/10ukraine-briefing-bakhmut-from-Sun-ledell/09ulraine-ledeall-01-twpj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A Ukraine war documents leak.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/10ambriefing-europe-nl-promo-april/10ambriefing-europe-nl-pentagon-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>‘Every Day Is Scary’: Ukrainian Soldiers Learn to Cope With Trauma</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A team of Ukrainian military psychologists is training soldiers to confront stress and trauma after a year of harsh fighting on the battlefield. But as Russia’s war grinds on, their work is getting harder.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/video/trauma-zarichne-still/trauma-zarichne-still-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Building Collapses in Marseille After Explosion</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Firefighters searched for survivors amid the burning debris. About 30 buildings in the area were evacuated, according to the French interior minister.</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10marseille-new-kqwh/10marseille-new-kqwh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Eight People Missing in Marseille After Building Collapses</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>The five-story building, near the French city’s old port, collapsed after an explosion whose cause was not immediately clear.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10marseille-new-kqwh/10marseille-new-kqwh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>A Quick Guide to What the Leaked U.S. Intelligence Documents Say</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>The authorities have so far made one arrest in the case, Jack Teixeira, a 21-year-old air national guardsman. But many questions remain about the classified documents that have been appearing online.</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09leakeddocs-explainer-tkvf/09leakeddocs-explainer-tkvf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>How the Latest Leaked Documents Are Different From Past Breaches</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>The freshness of the documents — some appear to be barely 40 days old — and the hints they hold for operations to come make them particularly damaging, officials say.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09dc-leaks-plvz/09dc-leaks-plvz-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Leaked Documents Suggest Ukrainian Air Defense Is in Peril if Not Reinforced</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A huge influx of munitions is needed to keep Russia’s air force from changing the course of the war, according to U.S. officials and newly leaked Pentagon documents.</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00dc-airforce-01-lqjc/00dc-airforce-01-lqjc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing: Leaked U.S. Intelligence</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Also, China conducts drills near Taiwan and the World Bank prepares for changes.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/041023ambriefing-asia-promo/041023ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>When Mounties Pose as Mobsters, Some Canadians Cry Foul</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A con game that undercover police use to obtain confessions in Canada secures convictions, but opponents say it’s a breeding ground for false confessions.</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/world/00canada-mrbig/00canada-mrbig-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Russia promises bonus pay to troops who destroy NATO tanks, documents say.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Unconfirmed reports from leaked Pentagon documents show plans to shore up troops’ morale and sharpen their tactics as Ukraine takes delivery of more advanced weapons.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/10leaked-documents-tanks-01-cghp/10leaked-documents-tanks-01-cghp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Fight for Roads Into Bakhmut Has Hit a Stalemate, Ukraine Says</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Even as Russian forces made some gains in the battered eastern city last week, Ukraine’s forces say they have thwarted Moscow’s efforts to sever supply lines. For now.</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09ulraine-ledeall-01-twpj/09ulraine-ledeall-01-twpj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tipping Confusion</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Tipping norms haven’t kept up with delivery apps and changes in how people buy food.</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/02/business/09-the-morning-tech-promo/00techfix-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Dangerously Scarce 50 Years Ago, India’s Tigers Bounce Back</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A conservation effort has worked well enough that there is now talk of sending some tigers to Cambodia to help that nation revive its own wild population.</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09India-Tiger-promo/09India-Tiger-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>El Salvador Decimated Its Ruthless Gangs. But at What Cost?</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>In the year since El Salvador declared a state of emergency, the government has delivered a stunning blow to the gangs that were once the ultimate authority in much of the country.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/world/00elsalvador-top/00elsalvador-top-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Europe Has Pledged a Million Shells for Ukraine in a Year. Can It Deliver?</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Probably not, experts say, given the shrunken state of its military industrial sector. A look at a major munitions maker helps explain why.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00ukraine-ammo-04-fglj/00ukraine-ammo-04-fglj-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>The World Bank Is Getting a New Chief. Will He Pivot Toward Climate Action?</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Under pressure from world leaders, development experts and shareholders, the bank opens its spring meeting on Monday, poised for big changes.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/climate/00cli-worldbank/00cli-worldbank-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Ireland Readies a Warm Welcome for Biden, ‘the Most Irish’ President Since J.F.K.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Ahead of President Biden’s trip to Ireland, the locals of two towns, including several of his relatives, are hoping he’ll return to celebrate their ancestral ties.</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/00biden-irish-roots-02-wfkh/00biden-irish-roots-02-wfkh-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Leaked Documents Show Seoul Torn Between U.S. Demands and Its Own Policy</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>The documents showed the United States most likely spied on a key Asian ally as pressure built for South Korea to help Washington supply ammunition to Ukraine.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/05/08/multimedia/08leaked-documents-skorea-hvtf/08leaked-documents-skorea-hvtf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>U.S. Sends Attack Submarine to Middle East as Tensions Rise Between Iran and Israel</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Officials said the move was meant as a deterrent against Iran and to maintain the stability of one of the world’s busiest shipping lanes.</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08gulf-submarine-florida-tvlz/08gulf-submarine-florida-tvlz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Israel Denies Leaked Claim That Spy Agency Leaders Encouraged Protest</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>The unsourced accusations about the leadership of the Mossad, Israel’s foreign intelligence service, were contained in a leaked Pentagon report.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08leaked-documents-israel-mossad-topart-kmfb/08leaked-documents-israel-mossad-topart-kmfb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Leaked Document Shows Dire Nature of the Battle for Bakhmut</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>An assessment that appears in a new batch of leaked classified documents appears to show that Ukraine was close to losing a key battle of the war in February.</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08ukraine-bakhmut-roads-topart-cqwv/08ukraine-bakhmut-roads-topart-cqwv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Wagner’s Influence Extends Far Beyond Ukraine, Leaked Documents Show</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>The Russian mercenary group has extended its network for acquiring weapons — a sign of its reach, but also a possible indication that sanctions are forcing it to branch out from its Russian backers.</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08leaked-documents-wagner-topart-kcpm/08leaked-documents-wagner-topart-kcpm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Overlooked No More: Alice Ball, Chemist Who Created a Treatment for Leprosy</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>After she died — and just a year after her discovery — another scientist took credit for her work. It would be more than half a century until her story resurfaced.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/10/multimedia/07overlooked-ball-01-lzjv-print1/07overlooked-ball-01-lzjv-print1-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Rockets From Lebanon Point to Growing Hamas Cooperation With Hezbollah</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Israel accused Hamas, a Palestinian militia, of firing rockets into Israel from Lebanon, underscoring its deepening ties with Hezbollah, the dominant Lebanese militia.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/08israel-lebanon-05/06israel-lebanon-news-top-01-khbt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Leaked Documents Reveal Depth of U.S. Spy Efforts and Russia’s Military Struggles</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>The information, exposed on social media sites, also shows that U.S. intelligence services are eavesdropping on important allies.</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08dc-intel-topart-01-wbzt/08dc-intel-topart-01-wbzt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>E.P.A. Is Said to Propose Rules Meant to Drive Up Electric Car Sales Tenfold</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>In what would be the nation’s most ambitious climate regulation, the proposal is designed to ensure that electric cars make up the majority of new U.S. auto sales by 2032.</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/multimedia/00cli-EVs1-qljm/00cli-EVs1-qljm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Benjamin B. Ferencz, Last Surviving Nuremberg Prosecutor, Dies at 103</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>In addition to convicting prominent Nazi war criminals, he crusaded for an international criminal court and for laws to end wars of aggression.</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/00ferencz-1-tjqw/00ferencz-1-tjqw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>French Diplomacy Undercuts U.S. Efforts to Rein China In</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Allies don’t always see things the same way, as Emmanuel Macron’s cozy visit to Xi Jinping made abundantly clear.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08-China-France-Assess-01-mhvg/08-China-France-Assess-01-mhvg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>China Rejects W.H.O. Accusations of Hiding Wuhan Covid Data</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>The rebukes came after overseas researchers discovered sequences that had not been previously shared.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08china-covid-01-tklj/08china-covid-01-tklj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>A Swedish Warship Sank in 1628. It’s Still Yielding Secrets.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Researchers are learning more about those who died after the Vasa sank, including a woman known as “G,” who was long believed by scientists to be a man.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/05/08/world/08xp-swedishboat/08xp-swedishboat-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>New Season, New Music</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Looking for new music recommendations? Introducing an antidote to the algorithm.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08-THE-MORNING-NL/08-THE-MORNING-NL-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Canada’s Moonshot Moment</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Jeremy Hansen, 47, will be one of four astronauts on NASA’s Artemis II moon mission and the first from Canada to venture into deep space.</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08canadaletter-pjvc/08canadaletter-pjvc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ukraine Says Russia Is Preparing to Evacuate Civilians From Occupied Areas of South</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Ukraine is widely expected to launch a counteroffensive in the coming weeks to recapture territory from Russian forces. Some Ukrainian officials say it could focus on the south of the country.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08ukraine-ledeall-01-wfzb/08ukraine-ledeall-01-wfzb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>The Russians Took Their Children. These Mothers Went and Got Them Back.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Making a nerve-wracking 3,000-mile journey from Ukraine, into Russia-occupied territory, and back again, a group of mothers managed to recover their children from the custody of the Russian authorities.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/00ukraine-children-pvlh-promo/00ukraine-children-pvlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Why Pope Francis Is the Star of A.I.-Generated Photos</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Francis has become a recurring favorite to show in incongruous situations, such as riding a motorcycle and attending Burning Man, in A.I.-generated images.</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/business/00AI-POPE/00AI-POPE-thumbWide.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>China Holds Military Drills Around Taiwan in ‘Stern Warning’</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Taiwan’s president visited the United States this past week and met with the House speaker, angering Beijing, which had threatened consequences.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/08china-exercises-01-ktgb/08china-exercises-01-ktgb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Israel Launches Retaliatory Attack on Lebanon and Gaza</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rare fighting broke out along the Israel-Lebanon border as Passover and Ramadan coincided.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07israel-borders-01-khlz/07israel-borders-01-khlz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>New Batch of Classified Documents Appears on Social Media Sites</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Secret documents that appear to detail American national security secrets on Ukraine, the Middle East and China have surfaced online.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07dc-ukraine-documents-wlvb/07dc-ukraine-documents-wlvb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Russia formally charges detained American reporter with espionage, according to state media.</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich, a reporter for The Wall Street Journal, was detained last week. The Journal and U.S. officials have vehemently rejected the Russian authorities’ allegations against him.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07ukraine-briefing-gershkovich-pzch/07ukraine-briefing-gershkovich-pzch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Macron Wraps Up China Visit, but Little Progress Seen on War</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Russia’s war in Ukraine figured little in statements after meetings between President Emmanuel Macron of France and China’s leader, Xi Jinping.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07Macron-Xi01-tjmq/07Macron-Xi01-tjmq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Taliban Bar Women From U.N., Threatening Afghanistan’s Last Lifeline</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>The Taliban administration extended a ban on women working in aid organizations to the United Nations, putting at risk one of the country’s last sources of badly needed aid.</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07Afghan-UN-zchp/07Afghan-UN-zchp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>‘Chilling Effect’: Arrest of Journalist Makes Covering Russia Even Tougher</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>The detention of the Wall Street Journal reporter Evan Gershkovich poses new obstacles for Western journalists seeking to report on Vladimir V. Putin’s rule.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07russia-media-zvwc/07russia-media-zvwc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Pope Will Miss Good Friday Procession Because of Cold Weather</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Francis was released from the hospital only last Saturday after a bout with bronchitis.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07pope-wtpm/07pope-wtpm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Calculating the Fastest Road to an Electric Car Future</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Government scientists have spent a year analyzing electric vehicles to help the E.P.A. design new tailpipe rules to trigger an electric car revolution.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/00cli-cars-01-wqvj/00cli-cars-01-wqvj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>U.A.E. Denies Extradition for Gupta Brothers, Accused of Corruption in South Africa</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>The businessmen Atul and Rajesh Gupta were implicated in the looting of state funds under President Jacob Zuma. They fled to the United Arab Emirates about five years ago.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/world/07SAFRICA-UAE-new/07SAFRICA-UAE-new-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sentencing in China’s ‘Chained Woman’ Trafficking Case Revives Online Outrage</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>The episode stirred anger not only for its shock factor, but also for the wider social problems it exemplified, and the government’s lack of transparency.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Keir Starmer Is Quietly Bending the U.K. Labour Party to His Will</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Political observers from his own side say he has been “ruthless” in reshaping the party as it looks to reclaim power.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06uk-labor-01-zphc/06uk-labor-01-zphc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>In Dealing With China, U.S. and Europe Take Different Tacks</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>The Biden administration says there is “convergence.” But trans-Atlantic leaders adopt different strategies on security and trade issues — including on Ukraine and Taiwan.</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07dc-europe-china-gmvj/07dc-europe-china-gmvj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>The custody of a Russian girl who drew an antiwar picture is still undecided.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>The authorities are determining who will take custody of Maria, 13, whose single father has been sentenced for “discrediting” the Russian Army.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07ukraine-briefing-russian-girl-1-gmwj/07ukraine-briefing-russian-girl-1-gmwj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>A Cobra Appeared Mid-Flight. The Pilot’s Quick Thinking Saved Lives.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>The pilot made an emergency landing after feeling a Cape Cobra slither under his shirt while flying across South Africa. “I had a moment of stunned silence,” he said.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07xp-plane-snake-bmfv/07xp-plane-snake-bmfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Tensions Subside in South Lebanon but Rise Again in West Bank and Israel</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rare cross-border fire between Israel and militias in Lebanon ebbed on Friday, lowering fears of a wider escalation. But violence flared again in Israel and the Israeli-occupied West Bank, where two attacks killed three civilians.</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07israel-borders-01-khlz/07israel-borders-01-khlz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>The Response to Crime</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Republican lawmakers are putting limits on progressive prosecutors.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/multimedia/07themorning-promo/31themorning-lede-1-bgjc-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Deadly Attack Exposes Growing Threat in Mexico: the Military</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Uniformed soldiers shot and killed unarmed civilians, including an American, then blocked medics from providing care, a top government official said. To many Mexicans, such abuse is all too familiar.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/world/00mexico-nuevolaredo-02/00mexico-nuevolaredo-02-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Suspicions Multiply as Nord Stream Sabotage Remains Unsolved</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Intelligence leaks surrounding the sabotage of the pipelines have provided more questions than answers. It may be in no one’s interest to reveal more.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/28/multimedia/00nordstream-theories/00nordstream-01-fqmp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>A Crab’s Eye View of Brexit</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>British seafood is prized in France and Spain far more than at home. Britain’s exit from the European Union hasn’t halted exports, but the path from sea to stovetop is fraught with new obstacles.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/24/24uk-shelfish-top-image/24uk-shelfish-top-image-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>A Pakistani Film, Banned at Home, Is Celebrated Abroad</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Saim Sadiq’s feature “Joyland,” which includes a transgender woman’s love affair, cannot be shown in Pakistan’s Punjab Province.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07joyland-tkvq/07joyland-tkvq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>How A.I. and DNA Are Unlocking the Mysteries of Global Supply Chains</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Firms are turning to advanced technologies to help answer a surprisingly tricky question: Where do products really come from?</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/29/multimedia/00dc-tracing-01-wcjv/00dc-tracing-01-wcjv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Amid Exile and Fire, a Revered Russian Theater Director Is Reborn</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Dmitry Krymov, one of Russia’s most eminent directors, is among the dozens of artists who have left their homeland since Russia invaded Ukraine.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/08/multimedia/00Krymov-01-zhtj/00Krymov-01-zhtj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Who Jacinda Ardern Really Is</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>As told in her first and farewell speeches.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07-ausletter-TK-1-fptm/07-ausletter-TK-1-fptm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Baptist Minister in Myanmar Gets 6 Years in Prison for Opposing Junta</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>The minister met with President Donald J. Trump in 2019 to highlight the abuses of Myanmar’s military, which later seized power in a coup.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07myanmar-01-kfmt/07myanmar-01-kfmt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>As the war grinds on in Ukraine, Ireland will examine its military neutrality.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>By CARLY OLSON</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-brief-Ireland-qkvh/06ukraine-brief-Ireland-qkvh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>China and France issue a joint statement supporting ‘all efforts to restore peace in Ukraine.’</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>The statement was issued after a three-day summit by Xi Jinping and Emmanuel Macron in China.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/07ukraine-briefing-xi-macron-zbkv/07ukraine-briefing-xi-macron-zbkv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Your Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A war documents leak.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07ambriefing-europe-nl-ukraine/07ambriefing-europe-nl-ukraine-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Ukraine War Plans Leak Prompts Pentagon Investigation</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Classified documents detailing secret American and NATO plans have appeared on Twitter and Telegram.</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06dc-ukraine-offensive-bmpz/06dc-ukraine-offensive-bmpz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>The new U.S. ambassador in Moscow meets with a diplomat to discuss Evan Gershkovich, the detained reporter.</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Lynne M. Tracy, the ambassador, spoke with Sergei A. Ryabkov, the Russian deputy foreign minister. U.S. officials have not been granted consular access to Mr. Gershkovich in the past week, a State Department official said.</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-brief-gershkovich-vfkw/06ukraine-brief-gershkovich-vfkw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Your Friday Briefing: U.S. Admits Flaws in Afghanistan Withdrawal</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Plus China and France call for peace talks between Russia and Ukraine, and India scrubs its textbooks.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07ambriefing-asia-promo2/07ambriefing-asia-lede-2-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>A French Minister Posed (Clothed) in Playboy. People Are Talking.</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Critics have questioned the junior minister’s choice of publication, and called the magazine shoot a distraction amid nationwide protests over a new pension law.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06france-minister-playboy-jmfk/06france-minister-playboy-jmfk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Xi and Macron Call for Ukraine Peace Talks, but the Path Is Murky</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>It is not clear that the Chinese and French leaders — much less Russia and Ukraine — have compatible terms for talks or peace, and Mr. Xi has not publicly agreed to pressure Moscow to negotiate.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06china-macron-top-zljq/06china-macron-top-zljq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Zelensky’s aides send mixed messages on Crimea and the possibility of negotiations.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Top government officials in Kyiv clarify that their mission remains to reclaim all Ukrainian territory from Russia.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-briefing-mixed-messages-topart-fbql/06ukraine-briefing-mixed-messages-topart-fbql-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Divisions emerge in NATO over giving Ukraine a pathway to membership, officials say.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>The debate on the status of Kyiv will continue up to the military alliance’s mid-July summit meeting.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-briefing-NATO-divide-topart-zbck/06ukraine-briefing-NATO-divide-topart-zbck-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Pension Law Protests Continue to Grip France</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Hundreds of thousands of demonstrators took to the streets yet again, calling for President Emmanuel Macron’s pension overhaul to be blocked.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06france-protest-sub-top-cjvh/06france-protest-sub-top-cjvh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>U.S. Acknowledges Afghanistan Evacuation Should Have Started Sooner</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>President Biden’s decision to end a 20-year war in August 2021 led to the swift collapse of the Afghan government and military. His administration has placed heavy blame on his predecessor.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06dc-afghan-zwkf/06dc-afghan-zwkf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Macron and Xi Call for Return to Ukraine Peace Talks</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>President Emmanuel Macron of France and Xi Jinping, China’s top leader, called for a return to peace talks over Russia’s war on Ukraine during a meeting in Beijing.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-briefing-xi-macron-04-lfwt/06ukraine-briefing-xi-macron-04-lfwt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Biden Administration to Curb Toxic Pollutants From Chemical Plants</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>The rule would chiefly affect plants along the Gulf Coast, the Ohio River Valley and in West Virginia.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/6cli-chemicals-fqkw/6cli-chemicals-fqkw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Ukrainian forces are ‘not going anywhere,’ Prigozhin says.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Yevgeny Prigozhin, who leads the mercenary group, also said that Russia would need better organization and more ammunition to push beyond the besieged city.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-briefing-bakhmut-topart-hmbv/06ukraine-briefing-bakhmut-topart-hmbv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Silvio Berlusconi, Former Italian Prime Minister, Is Being Treated for Leukemia</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Mr. Berlusconi, who is in the intensive care unit at a Milan hospital, has had the blood disorder for “some time,” his personal physician said.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06italy-berlusconi-bmpg/06italy-berlusconi-bmpg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Saudi and Iranian Foreign Ministers Meet in China After Thaw</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>The high-level talks were a sign that the regional rivals were moving ahead with an agreement to re-establish relations, mediated last month by Beijing.</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06saudi-china-01-vcml/06saudi-china-01-vcml-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>French Unions, Still Furious Over Pension Law, Resume Protests</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Hundreds of thousands again took to the streets to rally against raising the retirement age, but there were signs that the demonstrations were losing some steam, at least for now.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06france-protest-sub-top-cjvh/06france-protest-sub-top-cjvh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>The Power and Limits of Abortion Politics</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>What should we make of the role that abortion played in both the Chicago and Wisconsin elections this week?</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06themorning-copy-promo/06themorning-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Man Accused of Kidnapping Platypus Is Charged in Australia</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>The police had appealed for help after the platypus was spotted at a train station in Queensland. The animal was later released, but the authorities have been unable to find it.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06xp-platypus-2-kwhb/06xp-platypus-2-kwhb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>New Indian Textbooks Purged of Muslim History and Hindu Extremism</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>The changes removed or shrank references to material that the governing party of Prime Minister Narendra Modi finds inconvenient to its Hindu-first vision.</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06india-textbook-01-bmqc/06india-textbook-01-bmqc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Politics Complicates Chinese Reaction to U.S. Visit by Taiwan’s President</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>For Beijing, showing displeasure too openly carries risks, particularly of harming the chances for its preferred party in Taiwan’s coming presidential election.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06CHINA-TAIWAN-01-bjvm/06CHINA-TAIWAN-01-bjvm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>In Pristine Alaska, an Oil Giant Prepares to Drill for Decades</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Scientists say nations must stop new oil and gas projects to avoid climate catastrophe. But after the Biden administration greenlit the $8 billion Willow project, ConocoPhillips is racing ahead.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06cli-willow-promostill-mzqb/06cli-willow-promostill-mzqb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>In Northern Ireland Town, Painful Memories Lie Beneath a Fragile Peace</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Twenty-five years after the Good Friday Agreement ended an era of bloodshed, this is a moment to celebrate reconciliation across Northern Ireland. But for many, the past is not always easy to leave behind.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06uk-goodfriday-01-jwgp/06uk-goodfriday-01-jwgp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>It’s Not Just Willow: Oil and Gas Projects Are Back in a Big Way</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Alaska’s controversial Willow project has drawn criticism, but a global analysis shows that it’s just one of hundreds of investments approved in the past year or so.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03cli-oilandgas-01-lhpg/03cli-oilandgas-01-lhpg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>How Russia’s Offensive Ran Aground</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Whatever happens in Bakhmut, a once-ambitious winter offensive never really went anywhere.</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/world/ukraine-town-control-promo/ukraine-town-control-promo-thumbWide-v5.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2 Generals Took Over a Country. Will They Deliver Democracy or War?</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>The deadline is approaching for the generals who took power in a military coup in Sudan to turn over their authority to a civilian government. The mood in the capital, Khartoum, is anxious.</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05sudan-dispatch-08-fzpk/05sudan-dispatch-08-fzpk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Macron’s meeting with Xi could affect the direction of the war.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>By DAVID PIERSON</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ukraine-brief-macron-bcwh/06ukraine-brief-macron-bcwh-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Your Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>The reaction to criminal charges against Donald Trump.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ambriefing-europe-nl-jfpz/06ambriefing-europe-nl-jfpz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Keeping an Old Italian Tradition Alive in Australia: ‘Passata Day’</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Two sisters are among the dwindling few who gather family and friends once a year to make a 12-month supply of tomato passata, a purée that is a staple of Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/multimedia/00oz-salsa-bhmv/00oz-salsa-bhmv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>‘Outrageous’: Russia Accused of Spreading Disinformation at U.N. Event</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Moscow used its rotating presidency of the Security Council to host a session on deported Ukrainian children, leading some officials to walk out.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05russia-un-zhmb/05russia-un-zhmb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Zelensky Gets Hero’s Welcome in Poland, Cementing Ukraine’s Ties</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Polish leaders backed Ukraine’s bid for NATO membership, but even without that, Russia’s invasion is making the alliance’s eastern flank more united, and more important.</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05ukraine-ledeall-hpbw/05ukraine-ledeall-hpbw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Putin and Lukashenko will confer in Moscow on deepening ties, including nuclear-capable arms.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>The leader of Belarus is in Russia for talks on Thursday.</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05ukraine-brief-putin-lukashenko-lfcv/05ukraine-brief-putin-lukashenko-lfcv-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Your Thursday Briefing: Diplomatic Visits Highlight Tension With China</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Also, what’s next for Donald Trump and Israeli police raid a Jerusalem mosque.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06ambriefing-asia-nl-mccarthy-01-PROMO/06ambriefing-asia-nl-mccarthy-01-kghw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Italian Ex-Prime Minister Silvio Berlusconi Is Hospitalized</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>The 86-year-old businessman-turned-politician, now a senator, was admitted to an intensive care unit in Milan. He was said to have a “problem related to a previous infection.”</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05italy-berlusconi-tzcf/05italy-berlusconi-tzcf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Macron, in China, Says He’ll Urge Xi to Work for Peace in Ukraine</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>President Emmanuel Macron of France spoke of the need for a “shared responsibility for peace and international stability.”</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05macron-ktgm/05macron-ktgm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Biden’s Ambassador to Israel, at the Center of the Storm</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>A longtime Democratic insider, Thomas Nides navigates a fraught U.S.-Israel relationship with humor, if a sometimes all-too-quotable candor.</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05dc-nides-kpqw/05dc-nides-kpqw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>U.S. Tensions With China on Display as McCarthy Hosts Taiwan’s Leader</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Speaker Kevin McCarthy became the most senior elected official to meet with a Taiwanese president on American soil since the United States established diplomatic relations with Beijing.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05dc-mccarthy-sub-qpjw/05dc-mccarthy-sub-qpjw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tunisia’s Influence in Europe</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>The European Union relies heavily on Tunisia to stem migration, giving its increasingly authoritarian president leverage in negotiations with the bloc.</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05interpreterNL-tunisia-hgwc/05interpreterNL-tunisia-hgwc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>E.P.A. to Tighten Limits on Mercury and Other Pollutants From Power Plants</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>A new rule would reduce mercury, arsenic, nickel and lead emissions, which the Biden administration said would protect public health.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05cli-mercury-pwjt/05cli-mercury-pwjt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>A Black Man Went to Australia for Gold, Then Stood Up for Democracy</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>John Joseph was put on trial for leading a miners’ rebellion seeking less taxation and more representation. His legacy was forgotten — until now.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/15/world/00oz-rebel-02/00oz-rebel-02-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Nicola Sturgeon’s Husband Questioned in Inquiry Over Their Party’s Finances</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Peter Murrell, a longtime Scottish National Party official, was detained by the police for about 11 hours over the handling of donations raised to campaign for a second independence vote.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05uk-scotland-promo-tlgj/05uk-scotland-promo-tlgj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Donald Trump’s Day in Court</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>The case against him is about more than Stormy Daniels.</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05themorning-lede-vwzj-promo/05themorning-lede-vwzj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Polish Leaders Hope Defense of a Dead Pope Propels Them to Re-election</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Criticism of John Paul II, the canonized, Polish-born pope who is a national hero, has fueled anger that the governing party wants to turn into votes.</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05poland-pope-01-vmcq/05poland-pope-01-vmcq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>How a Tiny Literary Magazine Became a Springboard for Great Irish Writing</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>The Stinging Fly has helped launch several of Ireland’s most promising writers. How has a publication with 1,000 subscribers carved a niche in the Irish canon?</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06stingingfly1-sub-fqwt/06stingingfly1-sub-fqwt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>‘If I Stop Now I’ll Have Nothing’: The African Students Who Fled Ukraine</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>One student, accepted at a Georgian school, had her visa application rejected. Another, 18 months from his medical degree, received a deportation order from Germany. “It just makes you want to stop in the street and scream,” he said.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00ukraine-africans-01-mkjb/00ukraine-africans-01-mkjb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jacinda Ardern Delivers Final Speech to New Zealand Parliament</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>The former prime minister discussed the legacy she hoped to leave and ended the emotional speech in New Zealand’s Indigenous Maori language.</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05nz-ardern-lpzk/05nz-ardern-lpzk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jacinda Ardern’s Career in New Zealand Politics Ends</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>The former prime minister, who is now stepping down from Parliament, urged lawmakers to take action on climate change.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05nz-ardern-lpzk/05nz-ardern-lpzk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>China faces pressure to rein in Russia, but may have limited sway.</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>By DAVID PIERSON</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05ukraine-briefing-china-kbtc/05ukraine-briefing-china-kbtc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Israeli Police Raid Jerusalem Mosque; Brief Flare-Up With Gaza Follows</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>The raid at the sensitive holy site set off Palestinian rocket fire from the Gaza Strip, followed by Israeli airstrikes on the territory. On Wednesday night, there was a second raid at the compound.</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05israel-01-bmch/05israel-01-bmch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Israeli Police Raid the Aqsa Mosque Compound in Jerusalem</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>The Israeli police arrested Palestinian worshipers who had barricaded themselves inside a prayer hall at a sensitive holy site in Jerusalem’s Old City. Some worshipers shot off fireworks.</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05israel-01-bmch/05israel-01-bmch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Criminal charges against Donald Trump.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05ambriefing-europe-nl-promo/05themorning-lede-vwzj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Can China Make Peace in Ukraine? Macron Isn’t Saying No.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>The French president hopes Beijing can be useful in pressing Russia to end the war in Ukraine. How exactly is not clear.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/05macron-china-kzbj/05macron-china-kzbj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>China’s Ambassador to the E.U. Tries to Distance Beijing From Moscow</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>The ambassador, Fu Cong, said China was not on Russia’s side in the war in Ukraine. “‘No limit’ is nothing but rhetoric,” he said, referring to a statement from last year about the countries’ relationship.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03eu-china-02-fwmq/03eu-china-02-fwmq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Days into Russia’s U.N. Security Council presidency, Britain draws a line.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Russia had made it clear that a Kremlin official accused of war crimes related to Ukrainian children would be addressing a Council meeting on Ukrainian children.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04ukraine-brief-belova-un-clzg/04ukraine-brief-belova-un-clzg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Finland Joins NATO in a Power Shift and Rebuke to Putin</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>The Nordic country became the alliance’s 31st member on Tuesday, spurred by the war in Ukraine, in a strategic setback for President Vladimir V. Putin of Russia.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04finland-nato-01-gmwh/04finland-nato-01-gmwh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Near Bakhmut, Death Is Delivered Remotely and Watched on Video</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Using aerial drones to spot the enemy and direct artillery fire has become a staple of war for Ukraine and Russia, especially in the savage fight for control of Bakhmut.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/O4ukraine-bakhmut-jmvl/O4ukraine-bakhmut-jmvl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Your Wednesday Briefing: Trump Charged With 34 Felonies</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Also, Finland joins NATO and China targets a U.S. chip maker.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/040523ambriefing-asia-promo1/040523ambriefing-asia-promo1-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>He Told Their Stories of Repression. Now They Are Telling His.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich’s work for The Wall Street Journal included reporting on Russians’ efforts to help others who were being repressed. Russian journalists are now scrutinizing his arrest as a brazen attack on press freedom.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04gershkovich-essay-01-jcfg/04gershkovich-essay-01-jcfg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Avalanche in Indian Himalayas Kills at Least 7 Tourists, Officials Say</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>The authorities said more than 370 people had been rescued. But it remained unclear late Tuesday how many more might be missing.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04india-avalanche-bcfm/04india-avalanche-bcfm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Appeals Court Punts on Due Process Rights for Guantánamo Detainees</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>The case could have resolved an important question about the scope of rights for noncitizens held at the wartime prison.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04dc-gitmo-kczg/04dc-gitmo-kczg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>What We Know About the Bomb Attack on a Russian Pro-War Blogger</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>The killing of Vladlen Tatarsky came at a volatile moment in Russia, and could herald a further crackdown on dissent. Here’s how the case has developed so far.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00russia-bombing-wwk-pghb/00russia-bombing-wwk-pghb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Russia’s commissioner for children’s rights seeks to portray war crimes accusations as false.</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>An official charged by the International Criminal Court sought to portray her work as a humanitarian project.</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04ukraine-briefing-ukraine-russia-children-glpt/04ukraine-briefing-ukraine-russia-children-glpt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Donald Trump Prepares to Surrender</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>The Manhattan indictments may not even present his biggest legal threat.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04themorning-lede-promo/04themorning-lede-gzbp-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Surrogacy Emerges as the Wedge Issue for Italy’s Hard Right</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Prime Minister Giorgia Meloni has ordered municipalities to stop certifying foreign birth certificates for same-sex couples who used surrogacy, leaving some babies in a legal limbo.</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/00italy-meloni-surrogacy-01-tbkh/00italy-meloni-surrogacy-01-tbkh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Behind Trump Indictment, the Right Wing Finds a Familiar Villain in Soros</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Conspiracy theorists have long attributed wildly varied events to George Soros, in attacks often viewed as antisemitic. His indirect donations to a prosecutor’s campaign are animating Trump allies.</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04pol-soros-lgqv/04pol-soros-lgqv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Train Derails in the Netherlands, Killing at Least One</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>The passenger train, which was on its way to The Hague, struck a crane early Tuesday morning, officials said. Dozens were hurt.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04dutch-train-cpbg/04dutch-train-cpbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Passenger Train Derails in the Netherlands</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Dutch officials said about 30 people were injured and at least one person died.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04dutch-train-01-kgpq/04dutch-train-01-kgpq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>As Temperatures Rise, Melbourne’s Bats Get Their Own Sprinkler System</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>On the hottest days, a refreshing mist will cool down flying foxes, which have suffered mass death in Australian heat waves.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/16/multimedia/00OZ-BATS11-zbjv/00OZ-BATS11-zbjv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Fallout from a bombing in Russia.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/04ambriefing-europe-nl-promo-april/04ambriefing-europe-nl-bombing-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nigel Lawson, Economic Force Under Thatcher, Dies at 91</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>As chancellor of the Exchequer, he helped lift Britain with tax cuts and other Conservative measures — the “Lawson Boom” — but harder times followed, and he resigned in bitterness.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/multimedia/03Lawson1-wmbq-print1/03Lawson1-wmbq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Strange Days at the U.N. as Russia Takes the Helm of the Security Council</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>The monthlong presidency of an organization dedicated to preserving world peace is now in the hands of a nation waging the biggest land war in Europe in decades.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03un-russia-01-lhqm/03un-russia-01-lhqm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Russia Accuses Dissidents and Ukraine of Killing Pro-War Blogger</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>The authorities detained a woman they said had delivered the bomb, hidden in a statuette, that killed the blogger, and called it the work of antigovernment activists and Ukraine.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03russia-bombing-01-hjwk/03russia-bombing-01-hjwk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Your Tuesday Briefing: Ukraine Prepares a Counteroffensive</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Also, Trump returns to New York to surrender and North Koreans remain in “state-sponsored slavery” abroad.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/040423ambriefing-asia-promo/040423ambriefing-asia-promo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Evan Gershkovich, the American reporter detained in Moscow, appeals his arrest.</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Mr. Gershkovich was detained last Thursday while on a reporting trip to Yekaterinberg, Russia. His newspaper, The Wall Street Journal, and U.S. officials reject the charges of espionage against him as bogus.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-Gershkovich-lhmv/03ukraine-briefing-Gershkovich-lhmv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>The woman arrested in a Russian pro-war blogger’s death had attended opposition rallies.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Russian investigators arrested Daria Trepova, a 26-year-old native of St. Petersburg, on Monday in connection with the killing of the blogger known as Vladlen Tatarsky</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-bombing-suspect-gzhl/03ukraine-briefing-bombing-suspect-gzhl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>‘No One Gives Me Answers:’ Migrants Search for Bodies of Loved Ones After Mexico Fire</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>After a deadly fire in a migrant detention center in Ciudad Juárez, Mexico, some victims’ families and friends are still looking for answers about their loved ones.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/video/03vidimage-mexio-mirgrants/03vidimage-mexio-mirgrants-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>‘What Happened to My Brother?’: A Desperate Search in Mexico</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>After a deadly fire in a migrant detention center in Ciudad Juárez, Mexico, some victims’ families and friends are still looking for answers about their loved ones.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/video/03vidimage-mexio-mirgrants/03vidimage-mexio-mirgrants-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>New Marburg Outbreaks in Africa Raise Alarm About the Deadly Virus’s Spread</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>The spread of the Ebola-like virus has claimed lives but could be a crucial chance to test a vaccine — if supplies and researchers are mobilized in time.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/science/30marburg-outbreak/30marburg-outbreak-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Ex-Leader of Kosovo Pleads Not Guilty to War Crimes Charges</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Hashim Thaci, the former president and prime minister, went on trial in The Hague on charges related to the country’s bloody fight for independence.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03kosovo-trial-01-tmfb/03kosovo-trial-01-tmfb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Assassinated Pro-War Blogger Was Part of a Radical Russian Movement</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>The blogger killed in a bombing in St. Petersburg was one of the influential ultranationalists pushing for harsher pursuit of Russia’s war against Ukraine.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-russia-blogger-zvlm/03ukraine-briefing-russia-blogger-zvlm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>North Koreans Trapped in ‘State-Sponsored Slavery’ in Russia</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Despite sanctions and the pandemic, laborers from the country remain abroad, earning desperately needed cash for the regime, according to a new report.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03nkorea-humanrights-01-jlpz/03nkorea-humanrights-01-jlpz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>In Paris Referendum, 89% of Voters Back a Ban on Electric Scooters</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>A referendum emphasized how many residents had come to regard the scooters as dangerous nuisances with little environmental benefit. Other cities were closely watching the vote.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03paris-scooters-01-glqm/03paris-scooters-01-glqm-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Wagner claims ‘legal’ control of Bakhmut, while Ukraine says it is still fighting.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Yevgeny V. Prigozhin, the Wagner group founder, said Russian forces had raised their country’s flag in the center of Bakhmut.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-bakhmut-bjkg/03ukraine-briefing-bakhmut-bjkg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Andrew Tate Is Released From Jail and Placed Under House Arrest</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Mr. Tate, the social media influencer, and his brother Tristan had been in custody since December, when they were arrested on allegations of human trafficking, rape and forming an organized criminal group.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03xp-andrewtate1-pghc/03xp-andrewtate1-pghc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>The Year’s Biggest Election</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>The battle for a state Supreme Court seat in Wisconsin.</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03themorning-promo/03themorning-lede1-jplk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Ex-Principal Extradited From Israel Is Convicted of Abuse in Australia</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Malka Leifer, who had led an ultra-Orthodox Jewish girls’ school in Melbourne, was found guilty of sexually abusing students more than 15 years ago.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/00oz-abuse-HFO1-lcvp/00oz-abuse-HFO1-lcvp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>New Weapons Aren’t Enough: The Challenges of Ukraine’s Coming Assault</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>With powerful Western weapons, newly formed assault units and even a reconstituted Azov battalion, Ukraine is poised for a critical spring counteroffensive. But overcoming casualties and keeping war-weary troops motivated will be stern tests.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-offensive-wpcv-promo/03ukraine-offensive-wpcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>How the U.S., Family and Hollywood Freed the ‘Hotel Rwanda’ Hero</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Paul Rusesabagina, depicted in the 2004 film about genocide in his country, was reunited with his family last week. It took years of pressure to get him out of Rwanda, where he was convicted on terrorism charges.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/00rwanda-01-zpgq/00rwanda-01-zpgq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Hoping to Travel Abroad? Don’t Put Off Your Passport Application.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Processing times for new and renewed passports have increased again. The updated timeline, 10 to 13 weeks, leaves some would-be travelers feeling desperate.</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06travel-passports-1-vmlh/06travel-passports-1-vmlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Speculation flares after an influential Russian military blogger is killed by a bomb in St. Petersburg.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>By IVAN NECHEPURENKO and ANATOLY KURMANAEV</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/03ukraine-briefing-russia-blogger/02russia-blogger02-wgvk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Russia’s assault in eastern Ukraine appears stalled.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>By MATTHEW MPOKE BIGG and IVAN NECHEPURENKO</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-lackluster-offensive-khjw/03ukraine-briefing-lackluster-offensive-khjw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Sanna Marin’s Party Finishes Third in Finland’s Election</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>The prime minister and her Social Democratic Party conceded the parliamentary election as Peter Orpo and the National Coalition Party celebrated victory.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02finland-election01-jthc/02finland-election01-jthc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Donald Trump’s expected surrender at a Manhattan courthouse.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/03ambriefing-europe-nl-promo/03ambriefing-europe-nl-trump-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>St. Petersburg Blast Kills Russian Blogger Who Backed War in Ukraine</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Russian police officers inspected the aftermath of the explosion at a cafe where the blogger popularly known as Vladlen Tatarsky had been giving a public talk.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-russia-blogger-zvlm/03ukraine-briefing-russia-blogger-zvlm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Montenegro’s President, Europe’s Longest-Serving Elected Leader, Loses Runoff</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>The incumbent, Milo Djukanovic, conceded to Jakov Milatovic, who had campaigned on pledges to root out corruption and organized crime.</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02montenegro-election01-kgpm/02montenegro-election01-kgpm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Russian Strike in Eastern Ukraine Kills 6 Civilians</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>About a dozen others were also wounded when Russian shelling blasted numerous homes and buildings in Kostyantynivka, Ukraine.</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02ukraine-ledeall-new-lqmb/02ukraine-ledeall-new-lqmb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Finland’s Prime Minister Loses Tight Election; Her Party Came Third</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Prime Minister Sanna Marin’s party was outpolled by a rival that stressed economic concerns. Petteri Orpo of the National Coalition Party may now come to power, but coalition talks will be daunting.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02finland-election01-jthc/02finland-election01-jthc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>A Front Company and a Fake Identity: How the U.S. Came to Use Spyware It Was Trying to Kill.</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>The Biden administration has been trying to choke off use of hacking tools made by the Israeli firm NSO. It turns out that not every part of the government has gotten the message.</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/29/us/politics/00dc-spyware/00dc-spyware-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Your Monday Briefing: Donald Trump’s Legal Tactics</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Also, China’s lessons from the war in Ukraine and Volodymyr Zelensky denounces Russia’s U.N. role.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/040323ambriefing-asia-promo/03ambriefing-asia-trump1-lgzh-thumbWide-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Israel Moves Forward With Far-Right Plan for National Guard</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Itamar Ben-Gvir, one of the most extreme voices in the Israeli government, had long sought to create a national guard. Ministers agreed on Sunday to set up a committee to discuss next steps.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02israel-guard-new-zbgm/02israel-guard-new-zbgm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Influential Russian Military Blogger Is Killed in St. Petersburg Bombing</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Vladlen Tatarsky represented a radical wing of pro-invasion bloggers and activists who backed Moscow’s war but also criticized what they saw as the flaws in the Russian Army.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/03/multimedia/03ukraine-briefing-russia-blogger-zvlm/03ukraine-briefing-russia-blogger-zvlm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Pope Francis Leads Palm Sunday Mass After Hospital Stay</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Pope Francis delivered the homily to an estimated 60,000 people, one day after being discharged from a hospital stay.</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02pope-palmsunday-htgk/02pope-palmsunday-htgk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>In Rare Call With Lavrov, Blinken Demands Release of Imprisoned American Journalist</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Secretary of State Antony J. Blinken spoke with his Russian counterpart after the American basketball star Brittney Griner, who was detained for almost 10 months by Russia, urged the U.S. government to use “every tool possible” to secure Evan Gershkovich’s release.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02russia-gershkovich-tplz/02russia-gershkovich-tplz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Pope Francis, Back From the Hospital, Thanks Crowds for Their Prayers</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Francis arrived in St. Peter’s Square in an open-topped jeep on Palm Sunday, the beginning of a week of major ceremonies before Easter.</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02pope-palmsunday-htgk/02pope-palmsunday-htgk-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Maggie Haberman on Donald Trump</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>We talk with a Trump reporter to prepare you for the week when he will likely be arrested.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02morning-nl-trump/02morning-nl-trump-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>‘On a Tightrope’: How Taiwan’s President Navigated the U.S. and China</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Known for her quiet pragmatism, Tsai Ing-wen has ushered in a new era of American cooperation as worries about Chinese aggression rise.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02taiwan-president-01-pglf/02taiwan-president-01-pglf-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Fight Over Corruption and Congo’s Mining Riches Takes a Turn in Washington</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Dan Gertler, an Israeli billionaire, is pressing President Biden to remove sanctions that were imposed on him for bribe-fueled transactions in the impoverished African country.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/24/us/politics/00dc-gertler/00dc-gertler-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>The Children’s Rights Advocate Accused of Russian War Crimes</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Maria Lvova-Belova says she is running a humanitarian evacuation of abandoned Ukrainian children. The International Criminal Court accuses her of abducting them wholesale.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00russia-adoption-minister-ztlg/00russia-adoption-minister-ztlg-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Inside the Ukrainian Frontline City Residents Are Refusing to Leave</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Huddled in basements just over a mile away from the front lines of Avdiivka, over 1,800 residents are refusing to be rescued from one of the most active battlegrounds in eastern Ukraine.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/world/europe/Iryna_smoke/Iryna_smoke-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Refusing to Evacuate, Ukrainian Residents Go Underground</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Huddled in basements just over a mile away from the front lines of Avdiivka, over 1,800 residents are refusing to be rescued from one of the most active battlegrounds in eastern Ukraine.</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/world/europe/Iryna_smoke/Iryna_smoke-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Forest Fire Breaks Out on a Mountain in Central Seoul</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Dozens of nearby homes were evacuated as firefighters hurried to contain the blaze on one of Seoul’s most popular hiking sites.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02skorea-fire-glfb/02skorea-fire-glfb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Russian Shelling Kills 6 as Assault Stalls in Ukraine’s East</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>The attack came after President Volodymyr Zelensky of Ukraine said that permitting Moscow its monthlong presidency of the Security Council showed “the complete bankruptcy of such institutions.”</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02ukraine-ledeall-new-lqmb/02ukraine-ledeall-new-lqmb-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>No More Blank Checks: Saudi Arabia Clamps Down on Regional Aid</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>The kingdom used to send money to poorer countries like Egypt with few strings attached. But it is increasingly leveraging its economic power for influence in the Middle East and beyond.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/27/multimedia/00saudi-power-1-vftg/00saudi-power-1-vftg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>For Leaders Abroad, the Prospect of a Trump Revival Is Ever-Present</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>The indictment last week of Donald J. Trump has not changed the calculations of many world leaders who view his political resilience as inevitable.</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/02trump-world01/02trump-world01-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Pope Francis Returns to the Vatican After a 3-Day Hospital Stay</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Pope Francis was discharged from a hospital in Rome after undergoing treatment for bronchitis. The Vatican said he would take part in all of the Holy Week celebrations.</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/01pope-hospital-pmtv/01pope-hospital-pmtv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Green Savior or Deadly Menace? Paris Votes on E-Scooter Ban</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>For five years, the French capital has permitted the renting of electric scooters, which have proven both popular and perilous. On Sunday, voters will decide whether to end the experiment.</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/01france-scooter-01-jqpv/01france-scooter-01-jqpv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Bring the Kids Along</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>We take our children on vacation to expose them to history, novelty and beauty.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/01-THE-MORNING-NL/01-THE-MORNING-NL-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Far-Left Canadians Susceptible to Russian Influence Too</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Researchers found that on Twitter, members of Canada’s far left joined those on the far right in embracing pro-Russian messages created by a two-year Russian influence campaign.</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/02/multimedia/02canadaletter-mhbc/02canadaletter-mhbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Ukraine Charges a Leading Ukrainian Vicar, as Russia Pounds Eastern Ukraine</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>The charge against the religious leader, Pavlo Lebid, came as Russian forces hit the town of Avdiivka, among 70 other targets, along the front line.</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/01ukraine-ledeall-lead/31ukraine-briefing-carousel-02-jklt-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Venice Is Saved! Woe Is Venice.</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Produced by Mona Boshnaq</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/world/01venice-vid/01venice-vid-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Thailand’s Unemployed Elephants Are Back Home, Huge and Hungry</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>When the tourists who rode them disappeared from resort destinations, Thailand’s captive elephants, and their owners, went back to their birth villages, where finding enough food has been a struggle.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/23/multimedia/00thailand-elephant-dispatch-01-zchl/00thailand-elephant-dispatch-01-zchl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>The Finnish Secret to Happiness? Knowing When You Have Enough.</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>The Nordic nation has been ranked the happiest country on earth for six consecutive years. But when you talk to individual Finns, the reality is a bit more complicated.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/21/multimedia/21OPTIMISM-FINLAND1-ckqb/21OPTIMISM-FINLAND1-ckqb-thumbWide-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>China Draws Lessons From Russia’s Losses in Ukraine, and Its Gains</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>With an eye on a possible conflict over Taiwan, analysts have scrutinized the war for insights ranging from the importance of supply lines to the power of nuclear threats.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/18/multimedia/00china-military-01-zpct/00china-military-01-zpct-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Security Force or Anti-Arab Militia? Israelis Feud Over Far-Right Plan</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>The far-right security minister, Itamar Ben-Gvir, wants to create a national guard that he would control, saying it is needed to guarantee Israel’s security.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/01israel-guard-1-bmgq/01israel-guard-1-bmgq-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Pope Francis Quips He’s ‘Still Alive’ After Hospital Stay</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>The 86-year-old pontiff spent three days undergoing treatment for bronchitis at a hospital in Rome.</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/multimedia/01pope-hospital-pmtv/01pope-hospital-pmtv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Inside Saudi Arabia’s Global Push for Nuclear Power</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Despite qualms in Washington, Saudi officials have pressed the United States to help them develop nuclear power. But they are also exploring other options, including China.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/29/multimedia/00dc-saudi-nuclear-1-03-kbhj/00dc-saudi-nuclear-1-03-kbhj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -636,26 +636,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Read Your Way Through Kerala</t>
+          <t>A Visa Backlog Abroad Is Taking a Toll Inside the U.S., Too</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>April 13, 2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A strip of lush land at the tip of India where spices grow wild, Kerala has long drawn the gaze of outsiders. Here’s Abraham Verghese’s guide to its literature, which nods at these influences but is very much its own.</t>
+          <t>The pileup has left visitors from places like Brazil, Colombia, India and Mexico waiting months, even a year or more, to visit family or do business in America.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/03/books/review/00LitGuide-KERALA/00LitGuide-KERALA-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/12/travel/12visa-backlog-illo/12visa-backlog-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -664,7 +664,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>For Your Next Long Flight, Book a Couch in Coach</t>
+          <t>New Bargain Lodges Offer Rustic Comfort in the Heart of Nature</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -674,16 +674,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>An increasing number of long-haul airlines are offering economy seats that let passengers lie down. Sky couches as they’re often called, are a business-class approximation, without the frills, or the price.</t>
+          <t>From the Catskill Mountains in New York to the deserts of Utah, new or expanding hotel companies are creating affordable accommodations for those who love the outdoors.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/12/travel/12travel-sky-couch/12travel-sky-couch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/10/travel/oakImage-1681159827777/oakImage-1681159827777-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -692,26 +692,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Passenger Flight Is Diverted After Woman Threatens Flight Attendant</t>
+          <t>Read Your Way Through Kerala</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An Alaska Airlines flight from San Francisco to Chicago landed in Kansas City, Mo., after the passenger started acting erratically. She was arrested on a federal charge.</t>
+          <t>A strip of lush land at the tip of India where spices grow wild, Kerala has long drawn the gaze of outsiders. Here’s Abraham Verghese’s guide to its literature, which nods at these influences but is very much its own.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11xp-flight-bzfv/11xp-flight-bzfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/03/books/review/00LitGuide-KERALA/00LitGuide-KERALA-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -720,26 +720,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Can Boracay Beat Overtourism?</t>
+          <t>For Your Next Long Flight, Book a Couch in Coach</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Called one of the world’s best islands, the Philippine resort was closed by the government for six months and reopened with a cap on visitors. Now, with travelers coming back, will it continue to hold the line?</t>
+          <t>An increasing number of long-haul airlines are offering economy seats that let passengers lie down. Sky couches as they’re often called, are a business-class approximation, without the frills, or the price.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00-boracay-philippines-gtcv/00-boracay-philippines-gtcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/12/travel/12travel-sky-couch/12travel-sky-couch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -748,26 +748,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turning Over the Stones of England’s Lost Jewish Past</t>
+          <t>Passenger Flight Is Diverted After Woman Threatens Flight Attendant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April 10, 2023</t>
+          <t>April 11, 2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Around eight centuries ago, Jews thrived in England, worshiping freely and living where they pleased. Then everything changed. You can uncover their stories, if you know where to look.</t>
+          <t>An Alaska Airlines flight from San Francisco to Chicago landed in Kansas City, Mo., after the passenger started acting erratically. She was arrested on a federal charge.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/22/multimedia/00travel-jewishengland-gpbc/00travel-jewishengland-gpbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11xp-flight-bzfv/11xp-flight-bzfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -776,26 +776,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Have Eggs, Will Travel. To Freeze Them.</t>
+          <t>Can Boracay Beat Overtourism?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>April 8, 2023</t>
+          <t>April 11, 2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Faced with the high cost of egg-freezing in their home countries, some women are going abroad for a better deal, and a vacation.</t>
+          <t>Called one of the world’s best islands, the Philippine resort was closed by the government for six months and reopened with a cap on visitors. Now, with travelers coming back, will it continue to hold the line?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/fashion/06EGG-FREEZING-TOURISM-top/06EGG-FREEZING-TOURISM-top-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00-boracay-philippines-gtcv/00-boracay-philippines-gtcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -804,26 +804,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A Cobra Appeared Mid-Flight. The Pilot’s Quick Thinking Saved Lives.</t>
+          <t>Turning Over the Stones of England’s Lost Jewish Past</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>April 7, 2023</t>
+          <t>April 10, 2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The pilot made an emergency landing after feeling a Cape Cobra slither under his shirt while flying across South Africa. “I had a moment of stunned silence,” he said.</t>
+          <t>Around eight centuries ago, Jews thrived in England, worshiping freely and living where they pleased. Then everything changed. You can uncover their stories, if you know where to look.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07xp-plane-snake-bmfv/07xp-plane-snake-bmfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/03/22/multimedia/00travel-jewishengland-gpbc/00travel-jewishengland-gpbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -832,26 +832,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A New Exhibition Shows That Barkley L. Hendricks Was Never Simply a Painter</t>
+          <t>Have Eggs, Will Travel. To Freeze Them.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 8, 2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Plus: an expanding group of Japanese restaurants in Brooklyn, exuberant tableware from Kit Kemp and more recommendations from T Magazine.</t>
+          <t>Faced with the high cost of egg-freezing in their home countries, some women are going abroad for a better deal, and a vacation.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/05/t-magazine/05tmag-newsletter-slide-TDQS/05tmag-newsletter-slide-TDQS-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/fashion/06EGG-FREEZING-TOURISM-top/06EGG-FREEZING-TOURISM-top-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -860,26 +860,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Booking the Paris Olympics for 2024? What You Need to Know.</t>
+          <t>A Cobra Appeared Mid-Flight. The Pilot’s Quick Thinking Saved Lives.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 7, 2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Next year’s Summer Olympic Games in Paris are expected to draw millions of spectators. Here’s how to get tickets if you want to be one of them.</t>
+          <t>The pilot made an emergency landing after feeling a Cape Cobra slither under his shirt while flying across South Africa. “I had a moment of stunned silence,” he said.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00travel-olympics-lbhc/00travel-olympics-lbhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07xp-plane-snake-bmfv/07xp-plane-snake-bmfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -888,7 +888,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dining in Style, at 90 Miles an Hour</t>
+          <t>A New Exhibition Shows That Barkley L. Hendricks Was Never Simply a Painter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -898,16 +898,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Train travel is thriving in Central Europe, and so are dining cars. We rode the rails from Prague to Zurich and beyond, sampling regional dishes and savoring the views.</t>
+          <t>Plus: an expanding group of Japanese restaurants in Brooklyn, exuberant tableware from Kit Kemp and more recommendations from T Magazine.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/15/travel/05dining-cars-01-qfbv/05dining-cars-01-qfbv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/05/t-magazine/05tmag-newsletter-slide-TDQS/05tmag-newsletter-slide-TDQS-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -916,7 +916,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6 Picasso Shows to See This Year</t>
+          <t>Booking the Paris Olympics for 2024? What You Need to Know.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -926,16 +926,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fifty years after his death, the Cubist painter will be featured in art exhibitions in New York, Paris and Madrid.</t>
+          <t>Next year’s Summer Olympic Games in Paris are expected to draw millions of spectators. Here’s how to get tickets if you want to be one of them.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09picasso-list1-whmp/09picasso-list1-whmp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00travel-olympics-lbhc/00travel-olympics-lbhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -944,7 +944,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>36 Hours in Tokyo</t>
+          <t>Dining in Style, at 90 Miles an Hour</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -954,16 +954,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Think of Tokyo as a warren of concealed gems: Wander down side streets and be richly rewarded.</t>
+          <t>Train travel is thriving in Central Europe, and so are dining cars. We rode the rails from Prague to Zurich and beyond, sampling regional dishes and savoring the views.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06hours-tokyo-ktzm/06hours-tokyo-ktzm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/15/travel/05dining-cars-01-qfbv/05dining-cars-01-qfbv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -972,26 +972,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How to Brainstorm and Plan Events With Friends and Family</t>
+          <t>6 Picasso Shows to See This Year</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Many apps and tools for online collaboration work just as well for personal projects as they do for office tasks, and can be fun.</t>
+          <t>Fifty years after his death, the Cubist painter will be featured in art exhibitions in New York, Paris and Madrid.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/05/technology/personaltech/05TECHTIP-TOPART/05TECHTIP-TOPART-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09picasso-list1-whmp/09picasso-list1-whmp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1000,26 +1000,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fasten Your Seatbelts: What You Need to Know About Turbulence</t>
+          <t>36 Hours in Tokyo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recent incidents with turbulence during air travel raise questions about this challenging weather phenomenon. Here’s what we know about it and how to stay safe.</t>
+          <t>Think of Tokyo as a warren of concealed gems: Wander down side streets and be richly rewarded.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/07/travel/00travel-turbulence-illo/00travel-turbulence-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06hours-tokyo-ktzm/06hours-tokyo-ktzm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>If You Want to Learn Biathlon, Ski Fast and Stay Calm</t>
+          <t>How to Brainstorm and Plan Events With Friends and Family</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1038,16 +1038,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>At a former Olympic site in Utah, a first-timer finds that the sport, a hybrid of cross-country skiing and target shooting, requires serenity as well as speed.</t>
+          <t>Many apps and tools for online collaboration work just as well for personal projects as they do for office tasks, and can be fun.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00travel-biathlon-01-gfcm/00travel-biathlon-01-gfcm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/05/technology/personaltech/05TECHTIP-TOPART/05TECHTIP-TOPART-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Help! My Dog Was Rejected by the Airline Because of a Carrier Rule That Doesn’t Exist.</t>
+          <t>Fasten Your Seatbelts: What You Need to Know About Turbulence</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1066,16 +1066,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A gate agent suddenly objected to a canine who’d flown previously on the same route, saying the carrier wasn’t big enough. Our columnist tries to sort out what the actual rules for pets on planes are.</t>
+          <t>Recent incidents with turbulence during air travel raise questions about this challenging weather phenomenon. Here’s what we know about it and how to stay safe.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/04/travel/00tripped-up-illo/00tripped-up-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/07/travel/00travel-turbulence-illo/00travel-turbulence-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1084,26 +1084,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5 London Hotels Where You’ll Get the Royal Treatment</t>
+          <t>If You Want to Learn Biathlon, Ski Fast and Stay Calm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>April 4, 2023</t>
+          <t>April 5, 2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>If there was ever a time to splurge on a few days in the British capital, this is it. With the coronation approaching, here are some stylish places — old and new — where you can spend a certain weekend in May.</t>
+          <t>At a former Olympic site in Utah, a first-timer finds that the sport, a hybrid of cross-country skiing and target shooting, requires serenity as well as speed.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/31/travel/oakImage-1680266608174/oakImage-1680266608174-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00travel-biathlon-01-gfcm/00travel-biathlon-01-gfcm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1112,26 +1112,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hoping to Travel Abroad? Don’t Put Off Your Passport Application.</t>
+          <t>Help! My Dog Was Rejected by the Airline Because of a Carrier Rule That Doesn’t Exist.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>April 3, 2023</t>
+          <t>April 5, 2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Processing times for new and renewed passports have increased again. The updated timeline, 10 to 13 weeks, leaves some would-be travelers feeling desperate.</t>
+          <t>A gate agent suddenly objected to a canine who’d flown previously on the same route, saying the carrier wasn’t big enough. Our columnist tries to sort out what the actual rules for pets on planes are.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06travel-passports-1-vmlh/06travel-passports-1-vmlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/04/travel/00tripped-up-illo/00tripped-up-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1140,26 +1140,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Thailand’s Unemployed Elephants Are Back Home, Huge and Hungry</t>
+          <t>5 London Hotels Where You’ll Get the Royal Treatment</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>April 1, 2023</t>
+          <t>April 4, 2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>When the tourists who rode them disappeared from resort destinations, Thailand’s captive elephants, and their owners, went back to their birth villages, where finding enough food has been a struggle.</t>
+          <t>If there was ever a time to splurge on a few days in the British capital, this is it. With the coronation approaching, here are some stylish places — old and new — where you can spend a certain weekend in May.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/23/multimedia/00thailand-elephant-dispatch-01-zchl/00thailand-elephant-dispatch-01-zchl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/03/31/travel/oakImage-1680266608174/oakImage-1680266608174-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1168,28 +1168,84 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Hoping to Travel Abroad? Don’t Put Off Your Passport Application.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>April 3, 2023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Processing times for new and renewed passports have increased again. The updated timeline, 10 to 13 weeks, leaves some would-be travelers feeling desperate.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06travel-passports-1-vmlh/06travel-passports-1-vmlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Thailand’s Unemployed Elephants Are Back Home, Huge and Hungry</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>April 1, 2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>When the tourists who rode them disappeared from resort destinations, Thailand’s captive elephants, and their owners, went back to their birth villages, where finding enough food has been a struggle.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/23/multimedia/00thailand-elephant-dispatch-01-zchl/00thailand-elephant-dispatch-01-zchl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>10 Places to See Wildflowers in the West</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>April 1, 2023</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>A ‘super bloom’ may be in the eye of the beholder, but the winter’s rain and snow promises a bumper crop of spring blooms in Southern California and Arizona.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://static01.nyt.com/images/2023/04/15/travel/00-spring-wildflowers-thqm/00-spring-wildflowers-thqm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>9</v>
-      </c>
-      <c r="F27" t="b">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DeSantis Appointees Seek to ‘Void’ Disney World Agreement</t>
+          <t>Dragon at Disneyland’s ‘Fantasmic!’ Performance Catches Fire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>April 19, 2023</t>
+          <t>April 23, 2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A board overseeing the resort wants lawyers to prepare a resolution to stop Disney from maintaining vast control over the complex for decades to come.</t>
+          <t>At least six workers were treated for smoke inhalation after the fire on Saturday night at the California theme park, but no one was seriously hurt, officials said.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Disney-sub-pwgj/19Disney-sub-pwgj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/23/autossell/042323_DISNEY_DRAGON/042323_DISNEY_DRAGON-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -496,22 +496,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A Mexican Boutique With Penguin Saltshakers and Nopal Coin Purses</t>
+          <t>Scottish Island for Sale, Amenities Not Included</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>April 19, 2023</t>
+          <t>April 23, 2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Plus: Zoya Cherkassky’s paintings focused on the African diaspora, a playful and eclectic hotel in Oslo — and more recommendations from T Magazine.</t>
+          <t>Reaching Barlocco Island is challenging, and staying there for any length of time even more so. Still, dozens are vying for the 25 acres of nature.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/19/t-magazine/19tmag-newsletter-slide-A4N7-copy/19tmag-newsletter-slide-A4N7-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/22/lens/22xp-scottishisland-02/22xp-scottishisland-02-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -524,22 +524,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T Magazine Toasts Salone del Mobile With Trompe L’Oeil Murals and a Floating House</t>
+          <t>Leonardo’s Ferry Left High and Dry by Global Warming and Red Tape</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 23, 2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The artist Elvira Solana transformed the grounds of Milan’s Villa Necchi Campiglio for a celebration to kick off the city’s annual design fair.</t>
+          <t>A ferry used to traverse the banks of the Adda River, in northern Italy, but drought and an abundance of bureaucracy has closed it down.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/t-magazine/18tmag-salone-slide-U5V7-copy/18tmag-salone-slide-U5V7-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/22/multimedia/22italy-drought-dispatch-01-lzjv/22italy-drought-dispatch-01-lzjv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -552,22 +552,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Southwest Airlines Briefly Halts Takeoff of Flights</t>
+          <t>A Widow Said Her Husband Was Left in a Drinks Cooler After Dying on a Cruise</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April 18, 2023</t>
+          <t>April 22, 2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The airline, which experienced a large meltdown around Christmas, resumed departures after suffering from technology problems.</t>
+          <t>Marilyn Jones accused Celebrity Cruises in a lawsuit of storing her husband’s body in a cooler rather than the ship’s morgue and allowing it to become “horrifically decomposed.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18southwest-1-kbqz/18southwest-1-kbqz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/21/multimedia/21xp-cruise-jpwl/21xp-cruise-jpwl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -580,22 +580,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Hard-Fought Journey From East Africa to an Award-Winning Detroit Restaurant</t>
+          <t>Search Halted for 3 Americans Missing Off the Mexican Coast</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>April 15, 2023</t>
+          <t>April 20, 2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hamissi Mamba, a refugee from Burundi, knew little of American culture when he arrived eight years ago and learned English watching the “Peppa Pig” cartoon. But he opened his dream restaurant, and the accolades have rolled in.</t>
+          <t>Kerry O’Brien, Frank O’Brien and William Gross, who were sailing aboard the Ocean Bound, were last heard from near Mazatlán, Mexico, on April 4.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14Making-It-Work-01-01-mfbg/14Making-It-Work-01-01-mfbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/20/multimedia/20xp-search-htgk/20xp-search-htgk-thumbWide-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -608,22 +608,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A Hotel in Minorca With a Medicinal Garden and an Orchard</t>
+          <t>DeSantis Appointees Seek to ‘Void’ Disney World Agreement</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>April 13, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Plus: floral tableware from Marni, an exhibition of bold juxtapositions curated by David Salle and more recommendations from T Magazine.</t>
+          <t>A board overseeing the resort wants lawyers to prepare a resolution to stop Disney from maintaining vast control over the complex for decades to come.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/12/t-magazine/12tmag-newsletter-slide-RUDQ-copy/12tmag-newsletter-slide-RUDQ-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Disney-sub-pwgj/19Disney-sub-pwgj-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -636,22 +636,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A Visa Backlog Abroad Is Taking a Toll Inside the U.S., Too</t>
+          <t>A Mexican Boutique With Penguin Saltshakers and Nopal Coin Purses</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>April 13, 2023</t>
+          <t>April 19, 2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The pileup has left visitors from places like Brazil, Colombia, India and Mexico waiting months, even a year or more, to visit family or do business in America.</t>
+          <t>Plus: Zoya Cherkassky’s paintings focused on the African diaspora, a playful and eclectic hotel in Oslo — and more recommendations from T Magazine.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/12/travel/12visa-backlog-illo/12visa-backlog-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/t-magazine/19tmag-newsletter-slide-A4N7-copy/19tmag-newsletter-slide-A4N7-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -664,22 +664,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New Bargain Lodges Offer Rustic Comfort in the Heart of Nature</t>
+          <t>T Magazine Toasts Salone del Mobile With Trompe L’Oeil Murals and a Floating House</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>April 18, 2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>From the Catskill Mountains in New York to the deserts of Utah, new or expanding hotel companies are creating affordable accommodations for those who love the outdoors.</t>
+          <t>The artist Elvira Solana transformed the grounds of Milan’s Villa Necchi Campiglio for a celebration to kick off the city’s annual design fair.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/10/travel/oakImage-1681159827777/oakImage-1681159827777-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/18/t-magazine/18tmag-salone-slide-U5V7-copy/18tmag-salone-slide-U5V7-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -692,22 +692,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Read Your Way Through Kerala</t>
+          <t>Southwest Airlines Briefly Halts Takeoff of Flights</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>April 18, 2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A strip of lush land at the tip of India where spices grow wild, Kerala has long drawn the gaze of outsiders. Here’s Abraham Verghese’s guide to its literature, which nods at these influences but is very much its own.</t>
+          <t>The airline, which experienced a large meltdown around Christmas, resumed departures after suffering from technology problems.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/03/books/review/00LitGuide-KERALA/00LitGuide-KERALA-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18southwest-1-kbqz/18southwest-1-kbqz-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -720,22 +720,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>For Your Next Long Flight, Book a Couch in Coach</t>
+          <t>The Hard-Fought Journey From East Africa to an Award-Winning Detroit Restaurant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>April 15, 2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>An increasing number of long-haul airlines are offering economy seats that let passengers lie down. Sky couches as they’re often called, are a business-class approximation, without the frills, or the price.</t>
+          <t>Hamissi Mamba, a refugee from Burundi, knew little of American culture when he arrived eight years ago and learned English watching the “Peppa Pig” cartoon. But he opened his dream restaurant, and the accolades have rolled in.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/12/travel/12travel-sky-couch/12travel-sky-couch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/14/multimedia/14Making-It-Work-01-01-mfbg/14Making-It-Work-01-01-mfbg-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -748,22 +748,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Passenger Flight Is Diverted After Woman Threatens Flight Attendant</t>
+          <t>Exploring Picasso’s Málaga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>April 14, 2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An Alaska Airlines flight from San Francisco to Chicago landed in Kansas City, Mo., after the passenger started acting erratically. She was arrested on a federal charge.</t>
+          <t>Among the best places to discover the celebrated 20th-century Spanish artist is the sun-splashed, seaside city where he was born.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11xp-flight-bzfv/11xp-flight-bzfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/22/travel/14picasso-Malaga-cpgw/14picasso-Malaga-cpgw-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -776,22 +776,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Can Boracay Beat Overtourism?</t>
+          <t>A Hotel in Minorca With a Medicinal Garden and an Orchard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>April 13, 2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Called one of the world’s best islands, the Philippine resort was closed by the government for six months and reopened with a cap on visitors. Now, with travelers coming back, will it continue to hold the line?</t>
+          <t>Plus: floral tableware from Marni, an exhibition of bold juxtapositions curated by David Salle and more recommendations from T Magazine.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00-boracay-philippines-gtcv/00-boracay-philippines-gtcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/12/t-magazine/12tmag-newsletter-slide-RUDQ-copy/12tmag-newsletter-slide-RUDQ-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -804,22 +804,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turning Over the Stones of England’s Lost Jewish Past</t>
+          <t>A Visa Backlog Abroad Is Taking a Toll Inside the U.S., Too</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>April 10, 2023</t>
+          <t>April 13, 2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Around eight centuries ago, Jews thrived in England, worshiping freely and living where they pleased. Then everything changed. You can uncover their stories, if you know where to look.</t>
+          <t>The pileup has left visitors from places like Brazil, Colombia, India and Mexico waiting months, even a year or more, to visit family or do business in America.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/22/multimedia/00travel-jewishengland-gpbc/00travel-jewishengland-gpbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/12/travel/12visa-backlog-illo/12visa-backlog-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -832,22 +832,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Have Eggs, Will Travel. To Freeze Them.</t>
+          <t>36 Hours in Las Vegas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>April 8, 2023</t>
+          <t>April 13, 2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Faced with the high cost of egg-freezing in their home countries, some women are going abroad for a better deal, and a vacation.</t>
+          <t>A well-rounded tour of Vegas requires going beyond the Strip: What you find may surprise you.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/fashion/06EGG-FREEZING-TOURISM-top/06EGG-FREEZING-TOURISM-top-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/13/multimedia/13hours-LasVegas-03-zjkm/13hours-LasVegas-03-zjkm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -860,22 +860,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A Cobra Appeared Mid-Flight. The Pilot’s Quick Thinking Saved Lives.</t>
+          <t>New Bargain Lodges Offer Rustic Comfort in the Heart of Nature</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>April 7, 2023</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The pilot made an emergency landing after feeling a Cape Cobra slither under his shirt while flying across South Africa. “I had a moment of stunned silence,” he said.</t>
+          <t>From the Catskill Mountains in New York to the deserts of Utah, new or expanding hotel companies are creating affordable accommodations for those who love the outdoors.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07xp-plane-snake-bmfv/07xp-plane-snake-bmfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/10/travel/oakImage-1681159827777/oakImage-1681159827777-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -888,22 +888,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A New Exhibition Shows That Barkley L. Hendricks Was Never Simply a Painter</t>
+          <t>Read Your Way Through Kerala</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Plus: an expanding group of Japanese restaurants in Brooklyn, exuberant tableware from Kit Kemp and more recommendations from T Magazine.</t>
+          <t>A strip of lush land at the tip of India where spices grow wild, Kerala has long drawn the gaze of outsiders. Here’s Abraham Verghese’s guide to its literature, which nods at these influences but is very much its own.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/05/t-magazine/05tmag-newsletter-slide-TDQS/05tmag-newsletter-slide-TDQS-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/03/books/review/00LitGuide-KERALA/00LitGuide-KERALA-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -916,22 +916,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Booking the Paris Olympics for 2024? What You Need to Know.</t>
+          <t>For Your Next Long Flight, Book a Couch in Coach</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Next year’s Summer Olympic Games in Paris are expected to draw millions of spectators. Here’s how to get tickets if you want to be one of them.</t>
+          <t>An increasing number of long-haul airlines are offering economy seats that let passengers lie down. Sky couches as they’re often called, are a business-class approximation, without the frills, or the price.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00travel-olympics-lbhc/00travel-olympics-lbhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/12/travel/12travel-sky-couch/12travel-sky-couch-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -944,22 +944,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dining in Style, at 90 Miles an Hour</t>
+          <t>Passenger Flight Is Diverted After Woman Threatens Flight Attendant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 11, 2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Train travel is thriving in Central Europe, and so are dining cars. We rode the rails from Prague to Zurich and beyond, sampling regional dishes and savoring the views.</t>
+          <t>An Alaska Airlines flight from San Francisco to Chicago landed in Kansas City, Mo., after the passenger started acting erratically. She was arrested on a federal charge.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/15/travel/05dining-cars-01-qfbv/05dining-cars-01-qfbv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11xp-flight-bzfv/11xp-flight-bzfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -972,22 +972,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6 Picasso Shows to See This Year</t>
+          <t>Can Boracay Beat Overtourism?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 11, 2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fifty years after his death, the Cubist painter will be featured in art exhibitions in New York, Paris and Madrid.</t>
+          <t>Called one of the world’s best islands, the Philippine resort was closed by the government for six months and reopened with a cap on visitors. Now, with travelers coming back, will it continue to hold the line?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09picasso-list1-whmp/09picasso-list1-whmp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/07/multimedia/00-boracay-philippines-gtcv/00-boracay-philippines-gtcv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1000,22 +1000,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>36 Hours in Tokyo</t>
+          <t>Turning Over the Stones of England’s Lost Jewish Past</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>April 6, 2023</t>
+          <t>April 10, 2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Think of Tokyo as a warren of concealed gems: Wander down side streets and be richly rewarded.</t>
+          <t>Around eight centuries ago, Jews thrived in England, worshiping freely and living where they pleased. Then everything changed. You can uncover their stories, if you know where to look.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06hours-tokyo-ktzm/06hours-tokyo-ktzm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/22/travel/00travel-jewishengland-gpbc/00travel-jewishengland-gpbc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1028,22 +1028,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>How to Brainstorm and Plan Events With Friends and Family</t>
+          <t>Have Eggs, Will Travel. To Freeze Them.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 8, 2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Many apps and tools for online collaboration work just as well for personal projects as they do for office tasks, and can be fun.</t>
+          <t>Faced with the high cost of egg-freezing in their home countries, some women are going abroad for a better deal, and a vacation.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/05/technology/personaltech/05TECHTIP-TOPART/05TECHTIP-TOPART-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/fashion/06EGG-FREEZING-TOURISM-top/06EGG-FREEZING-TOURISM-top-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1056,22 +1056,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fasten Your Seatbelts: What You Need to Know About Turbulence</t>
+          <t>A Cobra Appeared Mid-Flight. The Pilot’s Quick Thinking Saved Lives.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 7, 2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recent incidents with turbulence during air travel raise questions about this challenging weather phenomenon. Here’s what we know about it and how to stay safe.</t>
+          <t>The pilot made an emergency landing after feeling a Cape Cobra slither under his shirt while flying across South Africa. “I had a moment of stunned silence,” he said.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/07/travel/00travel-turbulence-illo/00travel-turbulence-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/07xp-plane-snake-bmfv/07xp-plane-snake-bmfv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1084,22 +1084,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>If You Want to Learn Biathlon, Ski Fast and Stay Calm</t>
+          <t>A New Exhibition Shows That Barkley L. Hendricks Was Never Simply a Painter</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>At a former Olympic site in Utah, a first-timer finds that the sport, a hybrid of cross-country skiing and target shooting, requires serenity as well as speed.</t>
+          <t>Plus: an expanding group of Japanese restaurants in Brooklyn, exuberant tableware from Kit Kemp and more recommendations from T Magazine.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00travel-biathlon-01-gfcm/00travel-biathlon-01-gfcm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/05/t-magazine/05tmag-newsletter-slide-TDQS/05tmag-newsletter-slide-TDQS-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1112,22 +1112,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Help! My Dog Was Rejected by the Airline Because of a Carrier Rule That Doesn’t Exist.</t>
+          <t>Booking the Paris Olympics for 2024? What You Need to Know.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>April 5, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A gate agent suddenly objected to a canine who’d flown previously on the same route, saying the carrier wasn’t big enough. Our columnist tries to sort out what the actual rules for pets on planes are.</t>
+          <t>Next year’s Summer Olympic Games in Paris are expected to draw millions of spectators. Here’s how to get tickets if you want to be one of them.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/04/travel/00tripped-up-illo/00tripped-up-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/00travel-olympics-lbhc/00travel-olympics-lbhc-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1140,22 +1140,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5 London Hotels Where You’ll Get the Royal Treatment</t>
+          <t>Dining in Style, at 90 Miles an Hour</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>April 4, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>If there was ever a time to splurge on a few days in the British capital, this is it. With the coronation approaching, here are some stylish places — old and new — where you can spend a certain weekend in May.</t>
+          <t>Train travel is thriving in Central Europe, and so are dining cars. We rode the rails from Prague to Zurich and beyond, sampling regional dishes and savoring the views.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/31/travel/oakImage-1680266608174/oakImage-1680266608174-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/15/travel/05dining-cars-01-qfbv/05dining-cars-01-qfbv-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1168,22 +1168,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hoping to Travel Abroad? Don’t Put Off Your Passport Application.</t>
+          <t>6 Picasso Shows to See This Year</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>April 3, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Processing times for new and renewed passports have increased again. The updated timeline, 10 to 13 weeks, leaves some would-be travelers feeling desperate.</t>
+          <t>Fifty years after his death, the Cubist painter will be featured in art exhibitions in New York, Paris and Madrid.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06travel-passports-1-vmlh/06travel-passports-1-vmlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/09/multimedia/09picasso-list1-whmp/09picasso-list1-whmp-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1196,22 +1196,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Thailand’s Unemployed Elephants Are Back Home, Huge and Hungry</t>
+          <t>36 Hours in Tokyo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>April 1, 2023</t>
+          <t>April 6, 2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>When the tourists who rode them disappeared from resort destinations, Thailand’s captive elephants, and their owners, went back to their birth villages, where finding enough food has been a struggle.</t>
+          <t>Think of Tokyo as a warren of concealed gems: Wander down side streets and be richly rewarded.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/23/multimedia/00thailand-elephant-dispatch-01-zchl/00thailand-elephant-dispatch-01-zchl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06hours-tokyo-ktzm/06hours-tokyo-ktzm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1224,28 +1224,224 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>How to Brainstorm and Plan Events With Friends and Family</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>April 5, 2023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Many apps and tools for online collaboration work just as well for personal projects as they do for office tasks, and can be fun.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/05/technology/personaltech/05TECHTIP-TOPART/05TECHTIP-TOPART-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fasten Your Seatbelts: What You Need to Know About Turbulence</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>April 5, 2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Recent incidents with turbulence during air travel raise questions about this challenging weather phenomenon. Here’s what we know about it and how to stay safe.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/07/travel/00travel-turbulence-illo/00travel-turbulence-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>If You Want to Learn Biathlon, Ski Fast and Stay Calm</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>April 5, 2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>At a former Olympic site in Utah, a first-timer finds that the sport, a hybrid of cross-country skiing and target shooting, requires serenity as well as speed.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/00travel-biathlon-01-gfcm/00travel-biathlon-01-gfcm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Help! My Dog Was Rejected by the Airline Because of a Carrier Rule That Doesn’t Exist.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>April 5, 2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A gate agent suddenly objected to a canine who’d flown previously on the same route, saying the carrier wasn’t big enough. Our columnist tries to sort out what the actual rules for pets on planes are.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/travel/00tripped-up-illo/00tripped-up-illo-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5 London Hotels Where You’ll Get the Royal Treatment</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>April 4, 2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>If there was ever a time to splurge on a few days in the British capital, this is it. With the coronation approaching, here are some stylish places — old and new — where you can spend a certain weekend in May.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/travel/oakImage-1680266608174/oakImage-1680266608174-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hoping to Travel Abroad? Don’t Put Off Your Passport Application.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>April 3, 2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Processing times for new and renewed passports have increased again. The updated timeline, 10 to 13 weeks, leaves some would-be travelers feeling desperate.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/06/multimedia/06travel-passports-1-vmlh/06travel-passports-1-vmlh-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Thailand’s Unemployed Elephants Are Back Home, Huge and Hungry</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>April 1, 2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>When the tourists who rode them disappeared from resort destinations, Thailand’s captive elephants, and their owners, went back to their birth villages, where finding enough food has been a struggle.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/23/multimedia/00thailand-elephant-dispatch-01-zchl/00thailand-elephant-dispatch-01-zchl-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>10 Places to See Wildflowers in the West</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>April 1, 2023</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>A ‘super bloom’ may be in the eye of the beholder, but the winter’s rain and snow promises a bumper crop of spring blooms in Southern California and Arizona.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://static01.nyt.com/images/2023/04/15/travel/00-spring-wildflowers-thqm/00-spring-wildflowers-thqm-thumbWide.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
